--- a/TESTING/legendre_out/DATA/p2/a0/p2_a0Fit.xlsx
+++ b/TESTING/legendre_out/DATA/p2/a0/p2_a0Fit.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F229"/>
+  <dimension ref="A1:F223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -398,19 +398,19 @@
         <v>3.424536350759639</v>
       </c>
       <c r="B2" t="n">
-        <v>1.241170451106842e-05</v>
+        <v>8.44697138853841e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>3.428454469398921e-07</v>
+        <v>2.291609380920035e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>8.722742169446455</v>
+        <v>27.9115878264455</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1897817120244698</v>
+        <v>9.763419707350967e-05</v>
       </c>
       <c r="F2" t="n">
-        <v>1.453790361574409</v>
+        <v>4.651931304407584</v>
       </c>
     </row>
     <row r="3">
@@ -418,19 +418,19 @@
         <v>3.42877843536789</v>
       </c>
       <c r="B3" t="n">
-        <v>1.877198635446651e-05</v>
+        <v>1.268377008880499e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>5.071725354489127e-07</v>
+        <v>3.434217415753366e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>38.65340507507563</v>
+        <v>19.63137354996941</v>
       </c>
       <c r="E3" t="n">
-        <v>8.368997688366074e-07</v>
+        <v>0.00322015227098553</v>
       </c>
       <c r="F3" t="n">
-        <v>6.442234179179271</v>
+        <v>3.271895591661569</v>
       </c>
     </row>
     <row r="4">
@@ -438,4519 +438,4399 @@
         <v>3.430466699343294</v>
       </c>
       <c r="B4" t="n">
-        <v>2.214998408987156e-05</v>
+        <v>1.525834171516452e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>5.68755278780725e-07</v>
+        <v>3.899502991381304e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>40.11414828192208</v>
+        <v>27.95600285670686</v>
       </c>
       <c r="E4" t="n">
-        <v>4.32581353332672e-07</v>
+        <v>9.577241113558244e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>6.685691380320347</v>
+        <v>4.659333809451144</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3.432206382526072</v>
+        <v>3.433920356105163</v>
       </c>
       <c r="B5" t="n">
-        <v>2.5843089475548e-05</v>
+        <v>2.167215927757206e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>6.639358787031231e-07</v>
+        <v>5.175658457373038e-07</v>
       </c>
       <c r="D5" t="n">
-        <v>19.5830507250564</v>
+        <v>5.114088905253418</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003284305494379222</v>
+        <v>0.5292659673301805</v>
       </c>
       <c r="F5" t="n">
-        <v>3.2638417875094</v>
+        <v>0.8523481508755696</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3.433920356105163</v>
+        <v>3.435737168099</v>
       </c>
       <c r="B6" t="n">
-        <v>3.220685012610558e-05</v>
+        <v>2.253768099605752e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>7.696134318422654e-07</v>
+        <v>5.631276277453596e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>7.604710301917951</v>
+        <v>10.36186454097705</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2685164930124452</v>
+        <v>0.11021716699435</v>
       </c>
       <c r="F6" t="n">
-        <v>1.267451716986325</v>
+        <v>1.726977423496176</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3.435737168099</v>
+        <v>3.436542735681173</v>
       </c>
       <c r="B7" t="n">
-        <v>3.320620197451821e-05</v>
+        <v>2.338697636906591e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>8.311249416121524e-07</v>
+        <v>5.801778702612939e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>7.915542507920151</v>
+        <v>3.420167627191439</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2443564280164026</v>
+        <v>0.7545589666966557</v>
       </c>
       <c r="F7" t="n">
-        <v>1.319257084653358</v>
+        <v>0.5700279378652398</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3.436542735681173</v>
+        <v>3.440861949100481</v>
       </c>
       <c r="B8" t="n">
-        <v>3.487814214367719e-05</v>
+        <v>2.647632785651154e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>8.639453554258853e-07</v>
+        <v>6.036876609173485e-07</v>
       </c>
       <c r="D8" t="n">
-        <v>3.108228568768231</v>
+        <v>8.188925682605223</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7951455977475921</v>
+        <v>0.2245863649053358</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5180380947947052</v>
+        <v>1.364820947100871</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3.440861949100481</v>
+        <v>3.444324175730245</v>
       </c>
       <c r="B9" t="n">
-        <v>3.880401083384615e-05</v>
+        <v>2.592617789583817e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>8.875463852184801e-07</v>
+        <v>5.77278416398338e-07</v>
       </c>
       <c r="D9" t="n">
-        <v>5.368933219881602</v>
+        <v>2.770494481008691</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4974372439097902</v>
+        <v>0.8370515850253326</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8948222033136003</v>
+        <v>0.4617490801681152</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3.444324175730245</v>
+        <v>3.445018335029777</v>
       </c>
       <c r="B10" t="n">
-        <v>3.808348535134929e-05</v>
+        <v>2.375640064551699e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>8.491158712519023e-07</v>
+        <v>5.733817382863175e-07</v>
       </c>
       <c r="D10" t="n">
-        <v>3.55057124871272</v>
+        <v>6.830433457741818</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7372297088462562</v>
+        <v>0.3368138152944256</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5917618747854534</v>
+        <v>1.138405576290303</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3.445018335029777</v>
+        <v>3.44940610739225</v>
       </c>
       <c r="B11" t="n">
-        <v>3.535770353882088e-05</v>
+        <v>2.319543618544739e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>8.518810529781165e-07</v>
+        <v>5.619724986875474e-07</v>
       </c>
       <c r="D11" t="n">
-        <v>4.63837993213424</v>
+        <v>8.399473055467658</v>
       </c>
       <c r="E11" t="n">
-        <v>0.590956422556624</v>
+        <v>0.2102728365298917</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7730633220223734</v>
+        <v>1.399912175911276</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3.44940610739225</v>
+        <v>3.453639622132605</v>
       </c>
       <c r="B12" t="n">
-        <v>3.44939955295027e-05</v>
+        <v>2.011005517800621e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>8.346351479042057e-07</v>
+        <v>4.786653776780222e-07</v>
       </c>
       <c r="D12" t="n">
-        <v>9.864882033931053</v>
+        <v>5.451470905853696</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1304586702745436</v>
+        <v>0.487341403033695</v>
       </c>
       <c r="F12" t="n">
-        <v>1.644147005655175</v>
+        <v>0.9085784843089493</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3.453639622132605</v>
+        <v>3.45806167396666</v>
       </c>
       <c r="B13" t="n">
-        <v>2.969024453726472e-05</v>
+        <v>1.540745484550875e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>7.028908002663697e-07</v>
+        <v>3.864246338493272e-07</v>
       </c>
       <c r="D13" t="n">
-        <v>4.774525481637455</v>
+        <v>20.44896426761169</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5730400845524697</v>
+        <v>0.002303031794960027</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7957542469395759</v>
+        <v>3.408160711268616</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3.45806167396666</v>
+        <v>3.659299311887736</v>
       </c>
       <c r="B14" t="n">
-        <v>2.307418451494334e-05</v>
+        <v>8.913630912294389e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>5.743122058642892e-07</v>
+        <v>2.672972560890845e-07</v>
       </c>
       <c r="D14" t="n">
-        <v>13.7950759721599</v>
+        <v>2.37494837070187</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03201095322107014</v>
+        <v>0.8821920363229176</v>
       </c>
       <c r="F14" t="n">
-        <v>2.299179328693316</v>
+        <v>0.3958247284503116</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3.659299311887736</v>
+        <v>3.676516176489705</v>
       </c>
       <c r="B15" t="n">
-        <v>1.330019559497251e-05</v>
+        <v>1.2661840054944e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>3.97529389056954e-07</v>
+        <v>3.489877374355339e-07</v>
       </c>
       <c r="D15" t="n">
-        <v>1.922155625326333</v>
+        <v>2.518146988696129</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9267168213054436</v>
+        <v>0.8664312255828892</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3203592708877222</v>
+        <v>0.4196911647826881</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3.676516176489705</v>
+        <v>3.677433152354519</v>
       </c>
       <c r="B16" t="n">
-        <v>1.883857564757885e-05</v>
+        <v>1.791312965340956e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>5.194765005082065e-07</v>
+        <v>4.866521271830709e-07</v>
       </c>
       <c r="D16" t="n">
-        <v>3.40265580854385</v>
+        <v>18.48305229494612</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7568726290896748</v>
+        <v>0.005131879590281563</v>
       </c>
       <c r="F16" t="n">
-        <v>0.567109301423975</v>
+        <v>3.080508715824353</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3.677433152354519</v>
+        <v>3.679207115008878</v>
       </c>
       <c r="B17" t="n">
-        <v>2.618042987257649e-05</v>
+        <v>2.10802089774395e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>7.14442849500024e-07</v>
+        <v>5.506740996030709e-07</v>
       </c>
       <c r="D17" t="n">
-        <v>23.0180297235037</v>
+        <v>24.15933703543465</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0007904624125847078</v>
+        <v>0.000488158986351065</v>
       </c>
       <c r="F17" t="n">
-        <v>3.836338287250616</v>
+        <v>4.026556172572442</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3.679207115008878</v>
+        <v>3.680072671666319</v>
       </c>
       <c r="B18" t="n">
-        <v>3.205655900218398e-05</v>
+        <v>2.485252946160971e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>8.257288311252936e-07</v>
+        <v>6.358263842375511e-07</v>
       </c>
       <c r="D18" t="n">
-        <v>22.0776126692234</v>
+        <v>35.85830869739242</v>
       </c>
       <c r="E18" t="n">
-        <v>0.001172277458853313</v>
+        <v>2.937040911446961e-06</v>
       </c>
       <c r="F18" t="n">
-        <v>3.679602111537232</v>
+        <v>5.976384782898736</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3.680072671666319</v>
+        <v>3.680886809116387</v>
       </c>
       <c r="B19" t="n">
-        <v>3.658415412329255e-05</v>
+        <v>2.994130544770261e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>9.331976961641296e-07</v>
+        <v>7.337645816304639e-07</v>
       </c>
       <c r="D19" t="n">
-        <v>25.14351163489842</v>
+        <v>28.08311027214684</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0003211806337437873</v>
+        <v>9.063603304064362e-05</v>
       </c>
       <c r="F19" t="n">
-        <v>4.19058527248307</v>
+        <v>4.680518378691139</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3.680886809116387</v>
+        <v>3.681743795905933</v>
       </c>
       <c r="B20" t="n">
-        <v>4.445730506890187e-05</v>
+        <v>3.328173739225281e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>1.095674861094461e-06</v>
+        <v>8.296502306419992e-07</v>
       </c>
       <c r="D20" t="n">
-        <v>35.68556727413183</v>
+        <v>40.61478319759973</v>
       </c>
       <c r="E20" t="n">
-        <v>3.172920006383331e-06</v>
+        <v>3.44824408455032e-07</v>
       </c>
       <c r="F20" t="n">
-        <v>5.947594545688639</v>
+        <v>6.769130532933288</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3.681743795905933</v>
+        <v>3.682660771770746</v>
       </c>
       <c r="B21" t="n">
-        <v>4.839295386953474e-05</v>
+        <v>5.084940399129413e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>1.214410100996826e-06</v>
+        <v>1.199784628023547e-06</v>
       </c>
       <c r="D21" t="n">
-        <v>45.1618819895594</v>
+        <v>30.18355165711583</v>
       </c>
       <c r="E21" t="n">
-        <v>4.346047970575254e-08</v>
+        <v>3.627245283589868e-05</v>
       </c>
       <c r="F21" t="n">
-        <v>7.526980331593234</v>
+        <v>5.030591942852638</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3.682660771770746</v>
+        <v>3.683397780409756</v>
       </c>
       <c r="B22" t="n">
-        <v>7.501064397000382e-05</v>
+        <v>0.0001459140676250563</v>
       </c>
       <c r="C22" t="n">
-        <v>1.773234098342669e-06</v>
+        <v>3.348057694740436e-06</v>
       </c>
       <c r="D22" t="n">
-        <v>33.63508379946356</v>
+        <v>64.28661934675274</v>
       </c>
       <c r="E22" t="n">
-        <v>7.911626816837493e-06</v>
+        <v>6.03246641091725e-12</v>
       </c>
       <c r="F22" t="n">
-        <v>5.605847299910593</v>
+        <v>10.71443655779212</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3.683397780409756</v>
+        <v>3.684263337067197</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0002151461913174742</v>
+        <v>0.0002288822945349873</v>
       </c>
       <c r="C23" t="n">
-        <v>4.948085733917549e-06</v>
+        <v>5.201039825775015e-06</v>
       </c>
       <c r="D23" t="n">
-        <v>66.34314456792683</v>
+        <v>72.05121483330267</v>
       </c>
       <c r="E23" t="n">
-        <v>2.29319451278445e-12</v>
+        <v>1.550845594694898e-13</v>
       </c>
       <c r="F23" t="n">
-        <v>11.05719076132114</v>
+        <v>12.00853580555044</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3.684263337067197</v>
+        <v>3.685943031174706</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0003396825195153225</v>
+        <v>0.000342024504574367</v>
       </c>
       <c r="C24" t="n">
-        <v>7.710083986089468e-06</v>
+        <v>7.625896530688355e-06</v>
       </c>
       <c r="D24" t="n">
-        <v>71.49363294534653</v>
+        <v>55.7489734426232</v>
       </c>
       <c r="E24" t="n">
-        <v>2.018765190691402e-13</v>
+        <v>3.271774556037011e-10</v>
       </c>
       <c r="F24" t="n">
-        <v>11.91560549089109</v>
+        <v>9.291495573770534</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3.685943031174706</v>
+        <v>3.687699854093274</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0005098464943962264</v>
+        <v>0.0003468337491003333</v>
       </c>
       <c r="C25" t="n">
-        <v>1.132565457845298e-05</v>
+        <v>7.573768978499952e-06</v>
       </c>
       <c r="D25" t="n">
-        <v>49.76922914985502</v>
+        <v>64.05477573948373</v>
       </c>
       <c r="E25" t="n">
-        <v>5.229381427652546e-09</v>
+        <v>6.726646326261145e-12</v>
       </c>
       <c r="F25" t="n">
-        <v>8.294871524975838</v>
+        <v>10.67579595658062</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3.687699854093274</v>
+        <v>3.689525235955006</v>
       </c>
       <c r="B26" t="n">
-        <v>0.000512046202221256</v>
+        <v>0.0003227340537924042</v>
       </c>
       <c r="C26" t="n">
-        <v>1.119741189711025e-05</v>
+        <v>7.154722278842048e-06</v>
       </c>
       <c r="D26" t="n">
-        <v>65.14205403743524</v>
+        <v>54.15634495566823</v>
       </c>
       <c r="E26" t="n">
-        <v>4.035219226674614e-12</v>
+        <v>6.860524347130256e-10</v>
       </c>
       <c r="F26" t="n">
-        <v>10.85700900623921</v>
+        <v>9.026057492611372</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3.689525235955006</v>
+        <v>3.691256349269888</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0004750327175644477</v>
+        <v>0.0003078109977709046</v>
       </c>
       <c r="C27" t="n">
-        <v>1.055863140479367e-05</v>
+        <v>6.978941375702887e-06</v>
       </c>
       <c r="D27" t="n">
-        <v>58.57792198279377</v>
+        <v>58.74075677284313</v>
       </c>
       <c r="E27" t="n">
-        <v>8.749389391469675e-11</v>
+        <v>8.10863481619911e-11</v>
       </c>
       <c r="F27" t="n">
-        <v>9.762986997132295</v>
+        <v>9.790126128807188</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3.691256349269888</v>
+        <v>3.693013172188456</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0004540377271785283</v>
+        <v>0.0003087076654769622</v>
       </c>
       <c r="C28" t="n">
-        <v>1.029780319710408e-05</v>
+        <v>6.97647089788857e-06</v>
       </c>
       <c r="D28" t="n">
-        <v>58.61016120668757</v>
+        <v>51.42193526140772</v>
       </c>
       <c r="E28" t="n">
-        <v>8.618639568898421e-11</v>
+        <v>2.436835182675168e-09</v>
       </c>
       <c r="F28" t="n">
-        <v>9.768360201114595</v>
+        <v>8.570322543567952</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3.693013172188456</v>
+        <v>3.693578783469556</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0004564591475428766</v>
+        <v>0.0003130876610081944</v>
       </c>
       <c r="C29" t="n">
-        <v>1.031392723519814e-05</v>
+        <v>6.942290330560218e-06</v>
       </c>
       <c r="D29" t="n">
-        <v>54.37329667446646</v>
+        <v>49.0759558106928</v>
       </c>
       <c r="E29" t="n">
-        <v>6.202857664558584e-10</v>
+        <v>7.19946144470397e-09</v>
       </c>
       <c r="F29" t="n">
-        <v>9.062216112411077</v>
+        <v>8.179325968448801</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3.693578783469556</v>
+        <v>3.694615737484906</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0004634026624803444</v>
+        <v>0.0003023616757751905</v>
       </c>
       <c r="C30" t="n">
-        <v>1.026749209246849e-05</v>
+        <v>6.73299297043627e-06</v>
       </c>
       <c r="D30" t="n">
-        <v>45.91353969878766</v>
+        <v>51.39701027460517</v>
       </c>
       <c r="E30" t="n">
-        <v>3.080236808613829e-08</v>
+        <v>2.465095593152274e-09</v>
       </c>
       <c r="F30" t="n">
-        <v>7.65225661646461</v>
+        <v>8.56616837910086</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3.694615737484906</v>
+        <v>3.696278291856625</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0004447234384138154</v>
+        <v>0.0003050218060451323</v>
       </c>
       <c r="C31" t="n">
-        <v>9.912392923976507e-06</v>
+        <v>6.822712561107345e-06</v>
       </c>
       <c r="D31" t="n">
-        <v>51.80473769882521</v>
+        <v>59.03243238884065</v>
       </c>
       <c r="E31" t="n">
-        <v>2.041243657043549e-09</v>
+        <v>7.075671503116989e-11</v>
       </c>
       <c r="F31" t="n">
-        <v>8.634122949804203</v>
+        <v>9.838738731473443</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3.696278291856625</v>
+        <v>3.698009405171506</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0004502699392074858</v>
+        <v>0.0003034028526316878</v>
       </c>
       <c r="C32" t="n">
-        <v>1.007282631279334e-05</v>
+        <v>6.872311478957241e-06</v>
       </c>
       <c r="D32" t="n">
-        <v>61.23798779524543</v>
+        <v>69.18046115289715</v>
       </c>
       <c r="E32" t="n">
-        <v>2.521390940056658e-11</v>
+        <v>6.020437745307321e-13</v>
       </c>
       <c r="F32" t="n">
-        <v>10.20633129920757</v>
+        <v>11.53007685881619</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3.698009405171506</v>
+        <v>3.699783367825865</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0004458120911818365</v>
+        <v>0.0002961008307256725</v>
       </c>
       <c r="C33" t="n">
-        <v>1.010816463658352e-05</v>
+        <v>6.575074785202103e-06</v>
       </c>
       <c r="D33" t="n">
-        <v>73.64207848169691</v>
+        <v>54.25775694910286</v>
       </c>
       <c r="E33" t="n">
-        <v>7.304092512114773e-14</v>
+        <v>6.544871922706557e-10</v>
       </c>
       <c r="F33" t="n">
-        <v>12.27367974694948</v>
+        <v>9.042959491517143</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3.699783367825865</v>
+        <v>3.70147163180127</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0004373748938930331</v>
+        <v>0.0002893238247595255</v>
       </c>
       <c r="C34" t="n">
-        <v>9.712285264993809e-06</v>
+        <v>6.564447255850993e-06</v>
       </c>
       <c r="D34" t="n">
-        <v>51.41471353989903</v>
+        <v>51.82922796170455</v>
       </c>
       <c r="E34" t="n">
-        <v>2.444989911353323e-09</v>
+        <v>2.018234264475215e-09</v>
       </c>
       <c r="F34" t="n">
-        <v>8.569118923316504</v>
+        <v>8.638204660284091</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3.70147163180127</v>
+        <v>3.703177035512466</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0004280120909759073</v>
+        <v>0.000268283173555291</v>
       </c>
       <c r="C35" t="n">
-        <v>9.711727663426844e-06</v>
+        <v>6.022741302092831e-06</v>
       </c>
       <c r="D35" t="n">
-        <v>54.06911653976545</v>
+        <v>62.05735951561736</v>
       </c>
       <c r="E35" t="n">
-        <v>7.144143887222981e-10</v>
+        <v>1.717460784249999e-11</v>
       </c>
       <c r="F35" t="n">
-        <v>9.01151942329424</v>
+        <v>10.34289325260289</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3.703177035512466</v>
+        <v>3.704736751469439</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0003961269099918431</v>
+        <v>0.0002440300400757843</v>
       </c>
       <c r="C36" t="n">
-        <v>8.888532737120408e-06</v>
+        <v>5.466823667849509e-06</v>
       </c>
       <c r="D36" t="n">
-        <v>60.42507055329011</v>
+        <v>65.7004764243205</v>
       </c>
       <c r="E36" t="n">
-        <v>3.68923481971696e-11</v>
+        <v>3.103095429956989e-12</v>
       </c>
       <c r="F36" t="n">
-        <v>10.07084509221502</v>
+        <v>10.95007940405342</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3.704736751469439</v>
+        <v>3.706647832010125</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0003600921994281007</v>
+        <v>0.0001976481057317262</v>
       </c>
       <c r="C37" t="n">
-        <v>8.067621434182141e-06</v>
+        <v>4.396008855964337e-06</v>
       </c>
       <c r="D37" t="n">
-        <v>65.03033024593552</v>
+        <v>63.01516558551184</v>
       </c>
       <c r="E37" t="n">
-        <v>4.252872897587105e-12</v>
+        <v>1.095924899399634e-11</v>
       </c>
       <c r="F37" t="n">
-        <v>10.83838837432259</v>
+        <v>10.50252759758531</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3.706647832010125</v>
+        <v>3.708276106910262</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0002917940776498399</v>
+        <v>0.000157997709202577</v>
       </c>
       <c r="C38" t="n">
-        <v>6.493712970326509e-06</v>
+        <v>3.48977332718678e-06</v>
       </c>
       <c r="D38" t="n">
-        <v>63.71864449302596</v>
+        <v>49.32714740044376</v>
       </c>
       <c r="E38" t="n">
-        <v>7.87700997595377e-12</v>
+        <v>6.412231733007992e-09</v>
       </c>
       <c r="F38" t="n">
-        <v>10.61977408217099</v>
+        <v>8.221191233407295</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3.708276106910262</v>
+        <v>3.709964370885666</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0002331151901512396</v>
+        <v>0.0001064181567590091</v>
       </c>
       <c r="C39" t="n">
-        <v>5.158292969845268e-06</v>
+        <v>2.385206531625585e-06</v>
       </c>
       <c r="D39" t="n">
-        <v>52.31372458718607</v>
+        <v>65.89884937660834</v>
       </c>
       <c r="E39" t="n">
-        <v>1.612637317114294e-09</v>
+        <v>2.826559699068958e-12</v>
       </c>
       <c r="F39" t="n">
-        <v>8.718954097864344</v>
+        <v>10.98314156276806</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3.709964370885666</v>
+        <v>3.710855637146794</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0001568204401382842</v>
+        <v>0.0001509659526484767</v>
       </c>
       <c r="C40" t="n">
-        <v>3.519797389152196e-06</v>
+        <v>3.404226675315088e-06</v>
       </c>
       <c r="D40" t="n">
-        <v>72.2021366905883</v>
+        <v>51.7748142955609</v>
       </c>
       <c r="E40" t="n">
-        <v>1.443987575640287e-13</v>
+        <v>2.069712875028004e-09</v>
       </c>
       <c r="F40" t="n">
-        <v>12.03368944843138</v>
+        <v>8.629135715926816</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3.710855637146794</v>
+        <v>3.711772613011608</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0002225427489130734</v>
+        <v>7.530698310484192e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>5.021072501376016e-06</v>
+        <v>1.733702273515578e-06</v>
       </c>
       <c r="D41" t="n">
-        <v>51.93622612194797</v>
+        <v>60.67650635936855</v>
       </c>
       <c r="E41" t="n">
-        <v>1.920700531330956e-09</v>
+        <v>3.279635803069258e-11</v>
       </c>
       <c r="F41" t="n">
-        <v>8.656037686991327</v>
+        <v>10.11275105989476</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3.711772613011608</v>
+        <v>3.713529435930176</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0001117796372405666</v>
+        <v>5.128235587099358e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>2.569907033905993e-06</v>
+        <v>1.182024608853285e-06</v>
       </c>
       <c r="D42" t="n">
-        <v>56.81276956889229</v>
+        <v>28.66907388639175</v>
       </c>
       <c r="E42" t="n">
-        <v>1.993512903140817e-10</v>
+        <v>7.026580462849605e-05</v>
       </c>
       <c r="F42" t="n">
-        <v>9.468794928148716</v>
+        <v>4.778178981065291</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3.713529435930176</v>
+        <v>3.715166280698207</v>
       </c>
       <c r="B43" t="n">
-        <v>7.567521118496959e-05</v>
+        <v>3.897159070016061e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>1.741980976709618e-06</v>
+        <v>9.111116729587723e-07</v>
       </c>
       <c r="D43" t="n">
-        <v>24.55697711874233</v>
+        <v>32.53231331130706</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0004123287657224016</v>
+        <v>1.28977400517841e-05</v>
       </c>
       <c r="F43" t="n">
-        <v>4.092829519790389</v>
+        <v>5.422052218551177</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3.715166280698207</v>
+        <v>3.719356946099085</v>
       </c>
       <c r="B44" t="n">
-        <v>5.756760681255383e-05</v>
+        <v>2.369936639067758e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>1.345993984308675e-06</v>
+        <v>5.972873197254387e-07</v>
       </c>
       <c r="D44" t="n">
-        <v>27.11120362386063</v>
+        <v>19.6469216066148</v>
       </c>
       <c r="E44" t="n">
-        <v>0.000138023268538371</v>
+        <v>0.003199771746398227</v>
       </c>
       <c r="F44" t="n">
-        <v>4.518533937310106</v>
+        <v>3.274486934435799</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3.719356946099085</v>
+        <v>3.723504762160485</v>
       </c>
       <c r="B45" t="n">
-        <v>3.469183415972516e-05</v>
+        <v>2.065849799980536e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>8.786928577101814e-07</v>
+        <v>5.422850496645449e-07</v>
       </c>
       <c r="D45" t="n">
-        <v>27.63298340202487</v>
+        <v>14.49945648237571</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0001101560812519901</v>
+        <v>0.02452828204385222</v>
       </c>
       <c r="F45" t="n">
-        <v>4.605497233670811</v>
+        <v>2.416576080395952</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3.723504762160485</v>
+        <v>3.727875394787168</v>
       </c>
       <c r="B46" t="n">
-        <v>3.003076237469752e-05</v>
+        <v>1.940594915317256e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>7.938928324959999e-07</v>
+        <v>4.987330607155791e-07</v>
       </c>
       <c r="D46" t="n">
-        <v>11.82704340270203</v>
+        <v>3.974893013053334</v>
       </c>
       <c r="E46" t="n">
-        <v>0.06594036490939759</v>
+        <v>0.6800742326101996</v>
       </c>
       <c r="F46" t="n">
-        <v>1.971173900450339</v>
+        <v>0.6624821688422223</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3.727875394787168</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="B47" t="n">
-        <v>2.867684759723415e-05</v>
+        <v>2.096989604767522e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>7.342335083271322e-07</v>
+        <v>5.149135576127663e-07</v>
       </c>
       <c r="D47" t="n">
-        <v>7.679653344746083</v>
+        <v>4.680747623797327</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2625245225344765</v>
+        <v>0.5853615384703537</v>
       </c>
       <c r="F47" t="n">
-        <v>1.279942224124347</v>
+        <v>0.7801246039662212</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3.745075119653346</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="B48" t="n">
-        <v>3.032693161010965e-05</v>
+        <v>2.681573470093981e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>7.523769598581527e-07</v>
+        <v>6.352738867475457e-07</v>
       </c>
       <c r="D48" t="n">
-        <v>8.750338697490058</v>
+        <v>5.151034069705211</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1881133186863279</v>
+        <v>0.5245931069761478</v>
       </c>
       <c r="F48" t="n">
-        <v>1.45838978291501</v>
+        <v>0.8585056782842019</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3.762300554123211</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="B49" t="n">
-        <v>3.972299075216168e-05</v>
+        <v>3.659908217351538e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>9.414741270633983e-07</v>
+        <v>8.391451668548285e-07</v>
       </c>
       <c r="D49" t="n">
-        <v>3.308560263456652</v>
+        <v>7.282806918250929</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7692407443475822</v>
+        <v>0.295483396732564</v>
       </c>
       <c r="F49" t="n">
-        <v>0.5514267105761087</v>
+        <v>1.213801153041821</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3.779337451499375</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="B50" t="n">
-        <v>5.379690376000308e-05</v>
+        <v>5.332859726719691e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>1.239793299563924e-06</v>
+        <v>1.198357898080895e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>6.195531064736667</v>
+        <v>6.529893517536177</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4016470150598505</v>
+        <v>0.3665147289882063</v>
       </c>
       <c r="F50" t="n">
-        <v>1.032588510789445</v>
+        <v>1.088315586256029</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3.788087286620635</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="B51" t="n">
-        <v>7.819942826363698e-05</v>
+        <v>6.664005208294366e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>1.761435679294811e-06</v>
+        <v>1.443841657759404e-06</v>
       </c>
       <c r="D51" t="n">
-        <v>7.949597691418383</v>
+        <v>3.920667796167261</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2418192204905276</v>
+        <v>0.6874114407735525</v>
       </c>
       <c r="F51" t="n">
-        <v>1.324932948569731</v>
+        <v>0.6534446326945434</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3.796605735308717</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="B52" t="n">
-        <v>9.744000612182306e-05</v>
+        <v>0.0001242516573424251</v>
       </c>
       <c r="C52" t="n">
-        <v>2.116274489097676e-06</v>
+        <v>2.784074748618788e-06</v>
       </c>
       <c r="D52" t="n">
-        <v>5.423283400258517</v>
+        <v>7.620705369205139</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4907770094932128</v>
+        <v>0.2672286408485294</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9038805667097528</v>
+        <v>1.27011756153419</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3.805055625053636</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0001839981044036167</v>
+        <v>0.0001915274981085531</v>
       </c>
       <c r="C53" t="n">
-        <v>4.121102706736884e-06</v>
+        <v>4.174520307417596e-06</v>
       </c>
       <c r="D53" t="n">
-        <v>6.751868995410348</v>
+        <v>11.66603549683012</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3444050616274417</v>
+        <v>0.06984753818388217</v>
       </c>
       <c r="F53" t="n">
-        <v>1.125311499235058</v>
+        <v>1.944339249471687</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3.813539794270136</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0002832560513255109</v>
+        <v>0.0004492736015660446</v>
       </c>
       <c r="C54" t="n">
-        <v>6.172311515030777e-06</v>
+        <v>9.957775365918086e-06</v>
       </c>
       <c r="D54" t="n">
-        <v>10.84721241405757</v>
+        <v>10.74504768481563</v>
       </c>
       <c r="E54" t="n">
-        <v>0.09321486334825232</v>
+        <v>0.09658294675084669</v>
       </c>
       <c r="F54" t="n">
-        <v>1.807868735676262</v>
+        <v>1.790841280802605</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3.817867577557342</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0006673319342663216</v>
+        <v>0.0006802502607983102</v>
       </c>
       <c r="C55" t="n">
-        <v>1.477529879175241e-05</v>
+        <v>1.470889725764306e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>10.20990920854496</v>
+        <v>9.599857674350163</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1160860926088829</v>
+        <v>0.1425459657406592</v>
       </c>
       <c r="F55" t="n">
-        <v>1.701651534757493</v>
+        <v>1.59997627905836</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3.82226391978771</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="B56" t="n">
-        <v>0.001003436106603694</v>
+        <v>0.0007087530349315445</v>
       </c>
       <c r="C56" t="n">
-        <v>2.170768738185927e-05</v>
+        <v>1.505371876146039e-05</v>
       </c>
       <c r="D56" t="n">
-        <v>9.104392282425426</v>
+        <v>16.23307397701372</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1677916842851045</v>
+        <v>0.01255616019818666</v>
       </c>
       <c r="F56" t="n">
-        <v>1.517398713737571</v>
+        <v>2.705512329502287</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3.830696669796837</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="B57" t="n">
-        <v>0.001044036665994224</v>
+        <v>0.000526136192138302</v>
       </c>
       <c r="C57" t="n">
-        <v>2.219201116805519e-05</v>
+        <v>1.143345273925892e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>16.85363012365973</v>
+        <v>11.60986069440547</v>
       </c>
       <c r="E57" t="n">
-        <v>0.009836498703588265</v>
+        <v>0.07126017782514697</v>
       </c>
       <c r="F57" t="n">
-        <v>2.808938353943288</v>
+        <v>1.934976782400912</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3.837569703848993</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0007772371599245694</v>
+        <v>0.000249842407821286</v>
       </c>
       <c r="C58" t="n">
-        <v>1.689183293759741e-05</v>
+        <v>5.507406185206586e-06</v>
       </c>
       <c r="D58" t="n">
-        <v>11.21374636306402</v>
+        <v>11.27899513174366</v>
       </c>
       <c r="E58" t="n">
-        <v>0.08199075867249141</v>
+        <v>0.08012710362578512</v>
       </c>
       <c r="F58" t="n">
-        <v>1.868957727177337</v>
+        <v>1.879832521957277</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3.844554146183789</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0003708986973392685</v>
+        <v>0.0001841535569504802</v>
       </c>
       <c r="C59" t="n">
-        <v>8.161951695514508e-06</v>
+        <v>4.103516761721868e-06</v>
       </c>
       <c r="D59" t="n">
-        <v>10.54303433533635</v>
+        <v>8.906919998851857</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1035686143663378</v>
+        <v>0.1788808940390687</v>
       </c>
       <c r="F59" t="n">
-        <v>1.757172389222724</v>
+        <v>1.484486666475309</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3.846319538970252</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0002737392706639081</v>
+        <v>0.000243486770808006</v>
       </c>
       <c r="C60" t="n">
-        <v>6.098401761826729e-06</v>
+        <v>5.293235306674167e-06</v>
       </c>
       <c r="D60" t="n">
-        <v>9.616727209507481</v>
+        <v>15.08978834029571</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1417482251470497</v>
+        <v>0.01956974257156947</v>
       </c>
       <c r="F60" t="n">
-        <v>1.602787868251247</v>
+        <v>2.514964723382618</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3.847930674134597</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0003597804280049082</v>
+        <v>9.638555343472732e-05</v>
       </c>
       <c r="C61" t="n">
-        <v>7.814091881470484e-06</v>
+        <v>2.186326787642293e-06</v>
       </c>
       <c r="D61" t="n">
-        <v>14.20175856354475</v>
+        <v>6.970705631955584</v>
       </c>
       <c r="E61" t="n">
-        <v>0.02746183902258207</v>
+        <v>0.3235648319724193</v>
       </c>
       <c r="F61" t="n">
-        <v>2.366959760590791</v>
+        <v>1.161784271992597</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3.84977319573212</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0001417884208404552</v>
+        <v>6.544337079404951e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>3.22029897274669e-06</v>
+        <v>1.461762094785408e-06</v>
       </c>
       <c r="D62" t="n">
-        <v>6.601133362926616</v>
+        <v>4.578072446605495</v>
       </c>
       <c r="E62" t="n">
-        <v>0.359312673043567</v>
+        <v>0.5989483089131025</v>
       </c>
       <c r="F62" t="n">
-        <v>1.100188893821103</v>
+        <v>0.7630120744342492</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3.852147049139162</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="B63" t="n">
-        <v>9.648395684784487e-05</v>
+        <v>3.794541510148901e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>2.156024988748418e-06</v>
+        <v>9.037974574278196e-07</v>
       </c>
       <c r="D63" t="n">
-        <v>4.037570219217633</v>
+        <v>8.002709954871298</v>
       </c>
       <c r="E63" t="n">
-        <v>0.671591988742394</v>
+        <v>0.2379048345803399</v>
       </c>
       <c r="F63" t="n">
-        <v>0.6729283698696055</v>
+        <v>1.33378499247855</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3.856414843351097</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="B64" t="n">
-        <v>5.603820598396418e-05</v>
+        <v>2.877017619649062e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>1.337204156969902e-06</v>
+        <v>6.923764363097695e-07</v>
       </c>
       <c r="D64" t="n">
-        <v>8.415280166955029</v>
+        <v>9.211576391324646</v>
       </c>
       <c r="E64" t="n">
-        <v>0.2092295224074376</v>
+        <v>0.1620241430374809</v>
       </c>
       <c r="F64" t="n">
-        <v>1.402546694492505</v>
+        <v>1.535262731887441</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3.865190388076044</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="B65" t="n">
-        <v>4.248447988434206e-05</v>
+        <v>6.570560689623105e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>1.022428558006729e-06</v>
+        <v>1.550586113346906e-06</v>
       </c>
       <c r="D65" t="n">
-        <v>8.190314850511418</v>
+        <v>43.40302975211524</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2244893566163646</v>
+        <v>9.706740263872212e-08</v>
       </c>
       <c r="F65" t="n">
-        <v>1.365052475085236</v>
+        <v>7.233838292019207</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3.866878652051449</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="B66" t="n">
-        <v>9.902609076198428e-05</v>
+        <v>0.0001929811132259305</v>
       </c>
       <c r="C66" t="n">
-        <v>2.327416067611337e-06</v>
+        <v>4.400460411834508e-06</v>
       </c>
       <c r="D66" t="n">
-        <v>39.58790458868469</v>
+        <v>49.58511844904265</v>
       </c>
       <c r="E66" t="n">
-        <v>5.488366222578332e-07</v>
+        <v>5.692978537958838e-09</v>
       </c>
       <c r="F66" t="n">
-        <v>6.597984098114115</v>
+        <v>8.264186408173776</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3.869363913741131</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0002852286059950773</v>
+        <v>0.0003374078079248881</v>
       </c>
       <c r="C67" t="n">
-        <v>6.509540131660183e-06</v>
+        <v>7.404328028414623e-06</v>
       </c>
       <c r="D67" t="n">
-        <v>51.16278290167494</v>
+        <v>36.41041771641009</v>
       </c>
       <c r="E67" t="n">
-        <v>2.747150781396607e-09</v>
+        <v>2.293835085750747e-06</v>
       </c>
       <c r="F67" t="n">
-        <v>8.52713048361249</v>
+        <v>6.068402952735016</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3.873640277820963</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0004991714957312775</v>
+        <v>0.000610487835089628</v>
       </c>
       <c r="C68" t="n">
-        <v>1.094954149433054e-05</v>
+        <v>1.336803101319003e-05</v>
       </c>
       <c r="D68" t="n">
-        <v>37.0309793993086</v>
+        <v>29.74407860250887</v>
       </c>
       <c r="E68" t="n">
-        <v>1.736571730859264e-06</v>
+        <v>4.39654351441321e-05</v>
       </c>
       <c r="F68" t="n">
-        <v>6.171829899884766</v>
+        <v>4.957346433751479</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3.878070899522913</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0009023947822399326</v>
+        <v>0.0006117949732189877</v>
       </c>
       <c r="C69" t="n">
-        <v>1.975672636862764e-05</v>
+        <v>1.293982893831017e-05</v>
       </c>
       <c r="D69" t="n">
-        <v>30.34532662274819</v>
+        <v>32.63327192405352</v>
       </c>
       <c r="E69" t="n">
-        <v>3.378986133120981e-05</v>
+        <v>1.233439871930142e-05</v>
       </c>
       <c r="F69" t="n">
-        <v>5.057554437124698</v>
+        <v>5.438878654008921</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3.881644534435317</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0009012522927827028</v>
+        <v>0.001061478851401424</v>
       </c>
       <c r="C70" t="n">
-        <v>1.907778140168953e-05</v>
+        <v>2.2610784880905e-05</v>
       </c>
       <c r="D70" t="n">
-        <v>32.46256617249972</v>
+        <v>23.61829906472967</v>
       </c>
       <c r="E70" t="n">
-        <v>1.330175002535408e-05</v>
+        <v>0.0006137634490302675</v>
       </c>
       <c r="F70" t="n">
-        <v>5.41042769541662</v>
+        <v>3.936383177454944</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3.88648650979625</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="B71" t="n">
-        <v>0.001570706747367629</v>
+        <v>0.001175576622687514</v>
       </c>
       <c r="C71" t="n">
-        <v>3.345242207303537e-05</v>
+        <v>2.566487139264771e-05</v>
       </c>
       <c r="D71" t="n">
-        <v>22.94209702333752</v>
+        <v>19.73422686327421</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0008161055609396696</v>
+        <v>0.003087646221308109</v>
       </c>
       <c r="F71" t="n">
-        <v>3.82368283722292</v>
+        <v>3.289037810545702</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3.890925701366096</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="B72" t="n">
-        <v>0.001739535589664195</v>
+        <v>0.001493917872840591</v>
       </c>
       <c r="C72" t="n">
-        <v>3.796792322148702e-05</v>
+        <v>2.951774059450111e-05</v>
       </c>
       <c r="D72" t="n">
-        <v>19.11398497530641</v>
+        <v>4.320268775945226</v>
       </c>
       <c r="E72" t="n">
-        <v>0.003975398890758003</v>
+        <v>0.6334216705621489</v>
       </c>
       <c r="F72" t="n">
-        <v>3.185664162551068</v>
+        <v>0.720044795990871</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3.899118495074151</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="B73" t="n">
-        <v>0.002208407184529758</v>
+        <v>0.002220904223756534</v>
       </c>
       <c r="C73" t="n">
-        <v>4.364086179816743e-05</v>
+        <v>4.474606651381428e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>4.504971079683558</v>
+        <v>4.644346236064962</v>
       </c>
       <c r="E73" t="n">
-        <v>0.6086762372104215</v>
+        <v>0.5901675311358563</v>
       </c>
       <c r="F73" t="n">
-        <v>0.750828513280593</v>
+        <v>0.774057706010827</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3.908014017949633</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="B74" t="n">
-        <v>0.003280326288029901</v>
+        <v>0.002036211241737197</v>
       </c>
       <c r="C74" t="n">
-        <v>6.609412481791473e-05</v>
+        <v>4.131860972310363e-05</v>
       </c>
       <c r="D74" t="n">
-        <v>4.608866461791407</v>
+        <v>5.541409621204576</v>
       </c>
       <c r="E74" t="n">
-        <v>0.5948635424750568</v>
+        <v>0.4764659863509085</v>
       </c>
       <c r="F74" t="n">
-        <v>0.7681444102985678</v>
+        <v>0.9235682702007626</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3.916541036505611</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="B75" t="n">
-        <v>0.003006553937894863</v>
+        <v>0.001037298453352718</v>
       </c>
       <c r="C75" t="n">
-        <v>6.101569861042428e-05</v>
+        <v>2.2283069216721e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>5.513710874531397</v>
+        <v>6.000345080654097</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4798011104975363</v>
+        <v>0.4231514259917263</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9189518124218995</v>
+        <v>1.000057513442349</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3.925025205722112</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="B76" t="n">
-        <v>0.001533426106037461</v>
+        <v>0.0005550671726978059</v>
       </c>
       <c r="C76" t="n">
-        <v>3.292320025257809e-05</v>
+        <v>1.183899900758345e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>5.989077509264101</v>
+        <v>2.967697411660662</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4244147414145595</v>
+        <v>0.8128901004096841</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9981795848773501</v>
+        <v>0.4946162352767769</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3.933637922957044</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0008210100519773168</v>
+        <v>0.000466420910999834</v>
       </c>
       <c r="C77" t="n">
-        <v>1.750874938738133e-05</v>
+        <v>1.018740274834983e-05</v>
       </c>
       <c r="D77" t="n">
-        <v>2.692676519950509</v>
+        <v>13.55221900114838</v>
       </c>
       <c r="E77" t="n">
-        <v>0.8463115585014934</v>
+        <v>0.03505833340892035</v>
       </c>
       <c r="F77" t="n">
-        <v>0.4487794199917515</v>
+        <v>2.258703166858064</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3.942370618342513</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0006901842893624527</v>
+        <v>0.001059313295594933</v>
       </c>
       <c r="C78" t="n">
-        <v>1.506606645744391e-05</v>
+        <v>2.233185600489467e-05</v>
       </c>
       <c r="D78" t="n">
-        <v>13.57089653517488</v>
+        <v>34.73178786521294</v>
       </c>
       <c r="E78" t="n">
-        <v>0.03481457221203511</v>
+        <v>4.85699742573771e-06</v>
       </c>
       <c r="F78" t="n">
-        <v>2.261816089195813</v>
+        <v>5.788631310868824</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3.950700529936895</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="B79" t="n">
-        <v>0.001563486069997592</v>
+        <v>0.001192153906186686</v>
       </c>
       <c r="C79" t="n">
-        <v>3.295589348120807e-05</v>
+        <v>2.582290068661762e-05</v>
       </c>
       <c r="D79" t="n">
-        <v>35.04722261610122</v>
+        <v>40.68961287389438</v>
       </c>
       <c r="E79" t="n">
-        <v>4.219660345752928e-06</v>
+        <v>3.333262106446433e-07</v>
       </c>
       <c r="F79" t="n">
-        <v>5.841203769350202</v>
+        <v>6.781602145649063</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3.959476074661841</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="B80" t="n">
-        <v>0.001757761029741621</v>
+        <v>0.0008636574766039915</v>
       </c>
       <c r="C80" t="n">
-        <v>3.811257269774959e-05</v>
+        <v>1.839682198821613e-05</v>
       </c>
       <c r="D80" t="n">
-        <v>41.64130919326728</v>
+        <v>52.90558090475722</v>
       </c>
       <c r="E80" t="n">
-        <v>2.164319188358421e-07</v>
+        <v>1.225795262887203e-09</v>
       </c>
       <c r="F80" t="n">
-        <v>6.940218198877879</v>
+        <v>8.817596817459536</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>3.967797416388328</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="B81" t="n">
-        <v>0.001271482782412359</v>
+        <v>0.0004581625415020429</v>
       </c>
       <c r="C81" t="n">
-        <v>2.712142580661848e-05</v>
+        <v>1.006879547652538e-05</v>
       </c>
       <c r="D81" t="n">
-        <v>57.111636289298</v>
+        <v>31.02498251214683</v>
       </c>
       <c r="E81" t="n">
-        <v>1.734277570649308e-10</v>
+        <v>2.507238979268612e-05</v>
       </c>
       <c r="F81" t="n">
-        <v>9.518606048216334</v>
+        <v>5.170830418691138</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3.97227945729765</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="B82" t="n">
-        <v>0.000676927940751706</v>
+        <v>0.0002696087866634492</v>
       </c>
       <c r="C82" t="n">
-        <v>1.488276211805849e-05</v>
+        <v>6.038454688853223e-06</v>
       </c>
       <c r="D82" t="n">
-        <v>30.95016611449918</v>
+        <v>21.1547369515133</v>
       </c>
       <c r="E82" t="n">
-        <v>2.591069990168112e-05</v>
+        <v>0.001720778903820626</v>
       </c>
       <c r="F82" t="n">
-        <v>5.158361019083197</v>
+        <v>3.525789491918883</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3.976384424019573</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0003998175666759028</v>
+        <v>0.0002224684373751183</v>
       </c>
       <c r="C83" t="n">
-        <v>8.938236329048048e-06</v>
+        <v>4.994037136668167e-06</v>
       </c>
       <c r="D83" t="n">
-        <v>20.1012628462449</v>
+        <v>9.498310873211608</v>
       </c>
       <c r="E83" t="n">
-        <v>0.00265676009268552</v>
+        <v>0.1474316351059873</v>
       </c>
       <c r="F83" t="n">
-        <v>3.350210474374149</v>
+        <v>1.583051812201935</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>3.984954291915029</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0003300738726379792</v>
+        <v>0.0001160922413108288</v>
       </c>
       <c r="C84" t="n">
-        <v>7.403442881250198e-06</v>
+        <v>2.655020476711186e-06</v>
       </c>
       <c r="D84" t="n">
-        <v>12.71564408406304</v>
+        <v>7.573969932965518</v>
       </c>
       <c r="E84" t="n">
-        <v>0.04778046823351217</v>
+        <v>0.2710053114807631</v>
       </c>
       <c r="F84" t="n">
-        <v>2.119274014010506</v>
+        <v>1.26232832216092</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.002231145592266</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0001708306002929038</v>
+        <v>6.125673385877504e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>3.912716598160072e-06</v>
+        <v>1.493791142949426e-06</v>
       </c>
       <c r="D85" t="n">
-        <v>9.590298659679302</v>
+        <v>11.81513561597067</v>
       </c>
       <c r="E85" t="n">
-        <v>0.142999745931728</v>
+        <v>0.06622227417415302</v>
       </c>
       <c r="F85" t="n">
-        <v>1.59838310994655</v>
+        <v>1.969189269328445</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.010826723091408</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="B86" t="n">
-        <v>9.003254193659764e-05</v>
+        <v>4.703146740103777e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>2.199233140054809e-06</v>
+        <v>1.149386546617362e-06</v>
       </c>
       <c r="D86" t="n">
-        <v>11.9218291111638</v>
+        <v>14.27134761713711</v>
       </c>
       <c r="E86" t="n">
-        <v>0.06373559448194011</v>
+        <v>0.02674765046325513</v>
       </c>
       <c r="F86" t="n">
-        <v>1.9869715185273</v>
+        <v>2.378557936189518</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.019208053893163</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="B87" t="n">
-        <v>6.88359659691572e-05</v>
+        <v>3.768504754280159e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>1.683844185647899e-06</v>
+        <v>8.787653756614446e-07</v>
       </c>
       <c r="D87" t="n">
-        <v>10.54140902470923</v>
+        <v>9.652294202296501</v>
       </c>
       <c r="E87" t="n">
-        <v>0.1036266194868285</v>
+        <v>0.1400791321387271</v>
       </c>
       <c r="F87" t="n">
-        <v>1.756901504118205</v>
+        <v>1.60871570038275</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.036424918495132</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="B88" t="n">
-        <v>5.562161207559265e-05</v>
+        <v>3.505959089693405e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>1.293151615558588e-06</v>
+        <v>8.806431577014836e-07</v>
       </c>
       <c r="D88" t="n">
-        <v>8.006748447365174</v>
+        <v>16.06621359359674</v>
       </c>
       <c r="E88" t="n">
-        <v>0.2376093139973909</v>
+        <v>0.01340295070625873</v>
       </c>
       <c r="F88" t="n">
-        <v>1.334458074560862</v>
+        <v>2.677702265599457</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.053547514550251</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="B89" t="n">
-        <v>5.138486794467081e-05</v>
+        <v>4.748549268292688e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>1.289472329475195e-06</v>
+        <v>1.188402063621335e-06</v>
       </c>
       <c r="D89" t="n">
-        <v>13.21819289719311</v>
+        <v>12.01819976415125</v>
       </c>
       <c r="E89" t="n">
-        <v>0.03969894867180162</v>
+        <v>0.0615640194554778</v>
       </c>
       <c r="F89" t="n">
-        <v>2.203032149532186</v>
+        <v>2.003033294025208</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.070687250341162</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="B90" t="n">
-        <v>7.045459096210212e-05</v>
+        <v>8.534273649059217e-05</v>
       </c>
       <c r="C90" t="n">
-        <v>1.757931677447404e-06</v>
+        <v>2.115643341381627e-06</v>
       </c>
       <c r="D90" t="n">
-        <v>13.70559331244622</v>
+        <v>11.79140207444237</v>
       </c>
       <c r="E90" t="n">
-        <v>0.03310343672574193</v>
+        <v>0.06678747250152697</v>
       </c>
       <c r="F90" t="n">
-        <v>2.284265552074369</v>
+        <v>1.965233679073729</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.075126441911007</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0001252124317732036</v>
+        <v>9.562230066451844e-05</v>
       </c>
       <c r="C91" t="n">
-        <v>3.113564775849182e-06</v>
+        <v>2.316425079671766e-06</v>
       </c>
       <c r="D91" t="n">
-        <v>12.72678409446145</v>
+        <v>7.288352436080508</v>
       </c>
       <c r="E91" t="n">
-        <v>0.04758573214980946</v>
+        <v>0.2950017741643244</v>
       </c>
       <c r="F91" t="n">
-        <v>2.121130682410242</v>
+        <v>1.214725406013418</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.078297293032326</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0001417225642261847</v>
+        <v>0.000117945386381454</v>
       </c>
       <c r="C92" t="n">
-        <v>3.423457512243422e-06</v>
+        <v>2.793176756539308e-06</v>
       </c>
       <c r="D92" t="n">
-        <v>7.776288446800464</v>
+        <v>12.98090118592751</v>
       </c>
       <c r="E92" t="n">
-        <v>0.2549554529811195</v>
+        <v>0.04334024206715265</v>
       </c>
       <c r="F92" t="n">
-        <v>1.296048074466744</v>
+        <v>2.163483530987918</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.087861265603653</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0001736891992588777</v>
+        <v>0.0001783321031467917</v>
       </c>
       <c r="C93" t="n">
-        <v>4.121634856598479e-06</v>
+        <v>4.070987251013974e-06</v>
       </c>
       <c r="D93" t="n">
-        <v>12.71835891454357</v>
+        <v>14.36328950988946</v>
       </c>
       <c r="E93" t="n">
-        <v>0.04773294232757289</v>
+        <v>0.02583107341947867</v>
       </c>
       <c r="F93" t="n">
-        <v>2.119726485757262</v>
+        <v>2.393881584981577</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.09212905981559</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0002633937267590685</v>
+        <v>0.0003763747570134308</v>
       </c>
       <c r="C94" t="n">
-        <v>6.009931371885154e-06</v>
+        <v>8.480595591957782e-06</v>
       </c>
       <c r="D94" t="n">
-        <v>17.02433083403097</v>
+        <v>35.4852147658135</v>
       </c>
       <c r="E94" t="n">
-        <v>0.009194239640915165</v>
+        <v>3.470148688027165e-06</v>
       </c>
       <c r="F94" t="n">
-        <v>2.837388472338494</v>
+        <v>5.914202460968917</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.096551111649645</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0005555019510504637</v>
+        <v>0.0004740463293253399</v>
       </c>
       <c r="C95" t="n">
-        <v>1.251846850340585e-05</v>
+        <v>1.02433631561897e-05</v>
       </c>
       <c r="D95" t="n">
-        <v>38.2913818443337</v>
+        <v>36.13242973164564</v>
       </c>
       <c r="E95" t="n">
-        <v>9.852244724849797e-07</v>
+        <v>2.597972772842261e-06</v>
       </c>
       <c r="F95" t="n">
-        <v>6.381896974055617</v>
+        <v>6.022071621940941</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.105069560337727</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0007009979735347338</v>
+        <v>0.0003902357327518997</v>
       </c>
       <c r="C96" t="n">
-        <v>1.514739648014164e-05</v>
+        <v>8.397604694475817e-06</v>
       </c>
       <c r="D96" t="n">
-        <v>36.1803042690853</v>
+        <v>27.40112825548213</v>
       </c>
       <c r="E96" t="n">
-        <v>2.542878433310832e-06</v>
+        <v>0.0001217765320783243</v>
       </c>
       <c r="F96" t="n">
-        <v>6.030050711514217</v>
+        <v>4.566854709247022</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.113468030875272</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0005766781412180182</v>
+        <v>0.0001894519858811567</v>
       </c>
       <c r="C97" t="n">
-        <v>1.241624921554062e-05</v>
+        <v>4.464234025166184e-06</v>
       </c>
       <c r="D97" t="n">
-        <v>28.40876683534776</v>
+        <v>30.93060547817515</v>
       </c>
       <c r="E97" t="n">
-        <v>7.868589607400739e-05</v>
+        <v>2.613441553481228e-05</v>
       </c>
       <c r="F97" t="n">
-        <v>4.734794472557961</v>
+        <v>5.155100913029192</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.122132167317578</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0002786687698106014</v>
+        <v>9.061768942903422e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>6.573819511746596e-06</v>
+        <v>2.279932519467312e-06</v>
       </c>
       <c r="D98" t="n">
-        <v>31.09977491186031</v>
+        <v>27.85630454666372</v>
       </c>
       <c r="E98" t="n">
-        <v>2.426121196866717e-05</v>
+        <v>0.0001000015898053501</v>
       </c>
       <c r="F98" t="n">
-        <v>5.183295818643384</v>
+        <v>4.642717424443954</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.12395754917931</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0001344037869748944</v>
+        <v>5.656483793139232e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>3.375566346548514e-06</v>
+        <v>1.453449607166421e-06</v>
       </c>
       <c r="D99" t="n">
-        <v>29.0833009334807</v>
+        <v>29.77884555135427</v>
       </c>
       <c r="E99" t="n">
-        <v>5.866782845818287e-05</v>
+        <v>4.330208963621562e-05</v>
       </c>
       <c r="F99" t="n">
-        <v>4.847216822246784</v>
+        <v>4.963140925225711</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.126622778094797</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="B100" t="n">
-        <v>8.354537612490578e-05</v>
+        <v>3.071471369238838e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>2.145158263101723e-06</v>
+        <v>8.25932745238733e-07</v>
       </c>
       <c r="D100" t="n">
-        <v>34.1378165089673</v>
+        <v>23.53547738706102</v>
       </c>
       <c r="E100" t="n">
-        <v>6.327459012974782e-06</v>
+        <v>0.0006356089359796713</v>
       </c>
       <c r="F100" t="n">
-        <v>5.689636084827884</v>
+        <v>3.92257956451017</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.13072774481672</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="B101" t="n">
-        <v>4.498978215424025e-05</v>
+        <v>1.968916336022086e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>1.209846427204611e-06</v>
+        <v>5.215194944148759e-07</v>
       </c>
       <c r="D101" t="n">
-        <v>21.66389540519915</v>
+        <v>8.950794967812955</v>
       </c>
       <c r="E101" t="n">
-        <v>0.001392895575700775</v>
+        <v>0.1763642972728851</v>
       </c>
       <c r="F101" t="n">
-        <v>3.610649234199858</v>
+        <v>1.491799161302159</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.139151924957952</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="B102" t="n">
-        <v>2.877272943036217e-05</v>
+        <v>1.387360417999974e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>7.630084251879666e-07</v>
+        <v>4.171864093004661e-07</v>
       </c>
       <c r="D102" t="n">
-        <v>7.995184095678894</v>
+        <v>16.03310299844674</v>
       </c>
       <c r="E102" t="n">
-        <v>0.238456343450717</v>
+        <v>0.01357738915255107</v>
       </c>
       <c r="F102" t="n">
-        <v>1.332530682613149</v>
+        <v>2.672183833074457</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.156411638899399</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="B103" t="n">
-        <v>2.089328777708253e-05</v>
+        <v>1.35204861890914e-05</v>
       </c>
       <c r="C103" t="n">
-        <v>6.215052079020976e-07</v>
+        <v>4.378737084209267e-07</v>
       </c>
       <c r="D103" t="n">
-        <v>13.04555367263674</v>
+        <v>22.66293802820075</v>
       </c>
       <c r="E103" t="n">
-        <v>0.04231822761593595</v>
+        <v>0.0009175966065465687</v>
       </c>
       <c r="F103" t="n">
-        <v>2.174258945439457</v>
+        <v>3.777156338033459</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.170346244097408</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="B104" t="n">
-        <v>2.068753588966541e-05</v>
+        <v>1.610174127939142e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>6.542735885282897e-07</v>
+        <v>4.361285883302879e-07</v>
       </c>
       <c r="D104" t="n">
-        <v>13.53883074882082</v>
+        <v>23.69361675010581</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0352340539759546</v>
+        <v>0.0005945391984284129</v>
       </c>
       <c r="F104" t="n">
-        <v>2.256471791470137</v>
+        <v>3.948936125017635</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.190571132330683</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="B105" t="n">
-        <v>2.375792854921383e-05</v>
+        <v>2.89240860370095e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>6.44625830362909e-07</v>
+        <v>7.971060305543495e-07</v>
       </c>
       <c r="D105" t="n">
-        <v>21.75720370726233</v>
+        <v>3.075790809266133</v>
       </c>
       <c r="E105" t="n">
-        <v>0.001339833828813295</v>
+        <v>0.7992759549648132</v>
       </c>
       <c r="F105" t="n">
-        <v>3.626200617877055</v>
+        <v>0.5126318015443555</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.199158139961929</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="B106" t="n">
-        <v>4.323374892582875e-05</v>
+        <v>4.162248011304976e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>1.18212028785099e-06</v>
+        <v>1.002913714385104e-06</v>
       </c>
       <c r="D106" t="n">
-        <v>4.211863811133687</v>
+        <v>2.938389163400969</v>
       </c>
       <c r="E106" t="n">
-        <v>0.6480298704025955</v>
+        <v>0.8165389942353888</v>
       </c>
       <c r="F106" t="n">
-        <v>0.7019773018556146</v>
+        <v>0.4897315272334948</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.207916544951084</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="B107" t="n">
-        <v>6.180757878557916e-05</v>
+        <v>5.240276242780116e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>1.489689712884149e-06</v>
+        <v>1.280300136633409e-06</v>
       </c>
       <c r="D107" t="n">
-        <v>3.245230488236019</v>
+        <v>3.610929462239318</v>
       </c>
       <c r="E107" t="n">
-        <v>0.7774979231927641</v>
+        <v>0.7291572774223798</v>
       </c>
       <c r="F107" t="n">
-        <v>0.5408717480393366</v>
+        <v>0.6018215770398864</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.216340725092316</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="B108" t="n">
-        <v>7.672434206503063e-05</v>
+        <v>5.413415562244805e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>1.877061267223778e-06</v>
+        <v>1.193814668589636e-06</v>
       </c>
       <c r="D108" t="n">
-        <v>4.246321080381684</v>
+        <v>1.466568989949608</v>
       </c>
       <c r="E108" t="n">
-        <v>0.6433813248821336</v>
+        <v>0.9616842544404749</v>
       </c>
       <c r="F108" t="n">
-        <v>0.707720180063614</v>
+        <v>0.2444281649916014</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.221645473319603</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="B109" t="n">
-        <v>7.967621235137886e-05</v>
+        <v>5.554934590110099e-05</v>
       </c>
       <c r="C109" t="n">
-        <v>1.757058506528858e-06</v>
+        <v>1.317529769227506e-06</v>
       </c>
       <c r="D109" t="n">
-        <v>1.416254515280386</v>
+        <v>5.513193509533316</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9648621709325093</v>
+        <v>0.4798635261270668</v>
       </c>
       <c r="F109" t="n">
-        <v>0.2360424192133976</v>
+        <v>0.9188655849222194</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.225107699949367</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="B110" t="n">
-        <v>8.10510789669452e-05</v>
+        <v>5.35564059036486e-05</v>
       </c>
       <c r="C110" t="n">
-        <v>1.926720446283663e-06</v>
+        <v>1.191164738044958e-06</v>
       </c>
       <c r="D110" t="n">
-        <v>4.7465223353081</v>
+        <v>6.74603954372111</v>
       </c>
       <c r="E110" t="n">
-        <v>0.5767100379920553</v>
+        <v>0.344973212784155</v>
       </c>
       <c r="F110" t="n">
-        <v>0.7910870558846833</v>
+        <v>1.124339923953518</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.230875221043007</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="B111" t="n">
-        <v>7.883208836165185e-05</v>
+        <v>5.513419448075011e-05</v>
       </c>
       <c r="C111" t="n">
-        <v>1.75432708403743e-06</v>
+        <v>1.230098788288592e-06</v>
       </c>
       <c r="D111" t="n">
-        <v>6.678910286277144</v>
+        <v>8.477189888831084</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3515643676125584</v>
+        <v>0.205184774842417</v>
       </c>
       <c r="F111" t="n">
-        <v>1.113151714379524</v>
+        <v>1.412864981471847</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.23929940118424</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="B112" t="n">
-        <v>8.159241531670373e-05</v>
+        <v>5.656368801946835e-05</v>
       </c>
       <c r="C112" t="n">
-        <v>1.816038009886793e-06</v>
+        <v>1.347004989269173e-06</v>
       </c>
       <c r="D112" t="n">
-        <v>6.658436131113452</v>
+        <v>14.07744419270243</v>
       </c>
       <c r="E112" t="n">
-        <v>0.3535924278659504</v>
+        <v>0.02878293208521544</v>
       </c>
       <c r="F112" t="n">
-        <v>1.109739355185575</v>
+        <v>2.346240698783738</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.24231599468344</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="B113" t="n">
-        <v>8.27828573337391e-05</v>
+        <v>5.938435664878415e-05</v>
       </c>
       <c r="C113" t="n">
-        <v>1.978400801254665e-06</v>
+        <v>1.323557829033004e-06</v>
       </c>
       <c r="D113" t="n">
-        <v>12.68916326022078</v>
+        <v>4.945455801717253</v>
       </c>
       <c r="E113" t="n">
-        <v>0.04824636827672056</v>
+        <v>0.5508276686917988</v>
       </c>
       <c r="F113" t="n">
-        <v>2.11486054337013</v>
+        <v>0.8242426336195421</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.24787783894759</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="B114" t="n">
-        <v>8.770436407934997e-05</v>
+        <v>6.239727830573519e-05</v>
       </c>
       <c r="C114" t="n">
-        <v>1.95593395867788e-06</v>
+        <v>1.379436002132187e-06</v>
       </c>
       <c r="D114" t="n">
-        <v>5.095083903973592</v>
+        <v>10.23750023752064</v>
       </c>
       <c r="E114" t="n">
-        <v>0.5316771036238388</v>
+        <v>0.11500012655442</v>
       </c>
       <c r="F114" t="n">
-        <v>0.8491806506622653</v>
+        <v>1.706250039586774</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.252257041442167</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="B115" t="n">
-        <v>9.264822736787892e-05</v>
+        <v>6.653555403363991e-05</v>
       </c>
       <c r="C115" t="n">
-        <v>2.047175667725759e-06</v>
+        <v>1.473631006192872e-06</v>
       </c>
       <c r="D115" t="n">
-        <v>9.391164758191625</v>
+        <v>6.744871322731383</v>
       </c>
       <c r="E115" t="n">
-        <v>0.1527447609508021</v>
+        <v>0.3450871512954184</v>
       </c>
       <c r="F115" t="n">
-        <v>1.565194126365271</v>
+        <v>1.12414522045523</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.25472516339606</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="B116" t="n">
-        <v>9.714051181549742e-05</v>
+        <v>6.767340858778562e-05</v>
       </c>
       <c r="C116" t="n">
-        <v>2.158712474891136e-06</v>
+        <v>1.511856135599378e-06</v>
       </c>
       <c r="D116" t="n">
-        <v>6.89144745260724</v>
+        <v>12.33549860801377</v>
       </c>
       <c r="E116" t="n">
-        <v>0.3310029266258822</v>
+        <v>0.05488934752395162</v>
       </c>
       <c r="F116" t="n">
-        <v>1.14857457543454</v>
+        <v>2.055916434668961</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.25739896217944</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="B117" t="n">
-        <v>9.87937486945728e-05</v>
+        <v>6.93307279517716e-05</v>
       </c>
       <c r="C117" t="n">
-        <v>2.21419822942156e-06</v>
+        <v>1.625466828610354e-06</v>
       </c>
       <c r="D117" t="n">
-        <v>13.45711811630997</v>
+        <v>16.73238683473302</v>
       </c>
       <c r="E117" t="n">
-        <v>0.03632467067981958</v>
+        <v>0.01031875287010787</v>
       </c>
       <c r="F117" t="n">
-        <v>2.242853019384996</v>
+        <v>2.78873113912217</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.259258623512755</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0001028804870622522</v>
+        <v>6.779248408792795e-05</v>
       </c>
       <c r="C118" t="n">
-        <v>2.413905071773646e-06</v>
+        <v>1.458181914500117e-06</v>
       </c>
       <c r="D118" t="n">
-        <v>15.11748846566707</v>
+        <v>15.17091207613468</v>
       </c>
       <c r="E118" t="n">
-        <v>0.019362340419698</v>
+        <v>0.01896825426521488</v>
       </c>
       <c r="F118" t="n">
-        <v>2.519581410944511</v>
+        <v>2.528485346022447</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.2616239070519</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="B119" t="n">
-        <v>0.0001007806213523682</v>
+        <v>6.727015020158205e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>2.164220840726684e-06</v>
+        <v>1.510420658402657e-06</v>
       </c>
       <c r="D119" t="n">
-        <v>18.00508236989312</v>
+        <v>14.34002578659421</v>
       </c>
       <c r="E119" t="n">
-        <v>0.006219506561130992</v>
+        <v>0.02606012942882281</v>
       </c>
       <c r="F119" t="n">
-        <v>3.000847061648853</v>
+        <v>2.390004297765703</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.263192192876769</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0001000250391065159</v>
+        <v>5.615293838021615e-05</v>
       </c>
       <c r="C120" t="n">
-        <v>2.239824518892688e-06</v>
+        <v>1.261702962835385e-06</v>
       </c>
       <c r="D120" t="n">
-        <v>14.33872568260606</v>
+        <v>10.46763797561782</v>
       </c>
       <c r="E120" t="n">
-        <v>0.02607298711208902</v>
+        <v>0.1062903976235794</v>
       </c>
       <c r="F120" t="n">
-        <v>2.389787613767677</v>
+        <v>1.744606329269637</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.271830619715387</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="B121" t="n">
-        <v>8.324432502526596e-05</v>
+        <v>5.514523116219465e-05</v>
       </c>
       <c r="C121" t="n">
-        <v>1.868630496336054e-06</v>
+        <v>1.337301971162701e-06</v>
       </c>
       <c r="D121" t="n">
-        <v>9.974275260902767</v>
+        <v>19.78149916954463</v>
       </c>
       <c r="E121" t="n">
-        <v>0.1257395326407555</v>
+        <v>0.003028543492853957</v>
       </c>
       <c r="F121" t="n">
-        <v>1.662379210150461</v>
+        <v>3.296916528257439</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.27642406890735</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="B122" t="n">
-        <v>8.192552516103994e-05</v>
+        <v>4.3962740516282e-05</v>
       </c>
       <c r="C122" t="n">
-        <v>1.978805131405096e-06</v>
+        <v>1.013218920495976e-06</v>
       </c>
       <c r="D122" t="n">
-        <v>19.90046827552086</v>
+        <v>14.81064984440449</v>
       </c>
       <c r="E122" t="n">
-        <v>0.002884642014147037</v>
+        <v>0.02178167829699193</v>
       </c>
       <c r="F122" t="n">
-        <v>3.316744712586809</v>
+        <v>2.468441640734081</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>4.28036620813926</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="B123" t="n">
-        <v>6.508255297947236e-05</v>
+        <v>3.495754109665342e-05</v>
       </c>
       <c r="C123" t="n">
-        <v>1.500396829674327e-06</v>
+        <v>8.07247209950652e-07</v>
       </c>
       <c r="D123" t="n">
-        <v>13.59409146553994</v>
+        <v>6.354452439876116</v>
       </c>
       <c r="E123" t="n">
-        <v>0.03451408074597151</v>
+        <v>0.3846769578788715</v>
       </c>
       <c r="F123" t="n">
-        <v>2.265681910923324</v>
+        <v>1.059075406646019</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>4.28891036643103</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="B124" t="n">
-        <v>5.151671450670352e-05</v>
+        <v>3.753466967041244e-05</v>
       </c>
       <c r="C124" t="n">
-        <v>1.190576915686123e-06</v>
+        <v>9.878286710115605e-07</v>
       </c>
       <c r="D124" t="n">
-        <v>6.985732733255109</v>
+        <v>10.62562907325008</v>
       </c>
       <c r="E124" t="n">
-        <v>0.322168645518722</v>
+        <v>0.1006591664132258</v>
       </c>
       <c r="F124" t="n">
-        <v>1.164288788875852</v>
+        <v>1.770938178875013</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>4.293495245755098</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="B125" t="n">
-        <v>5.551142812233864e-05</v>
+        <v>4.773489260959742e-05</v>
       </c>
       <c r="C125" t="n">
-        <v>1.45676404907325e-06</v>
+        <v>1.116101051887356e-06</v>
       </c>
       <c r="D125" t="n">
-        <v>8.67654263701915</v>
+        <v>21.81140208599087</v>
       </c>
       <c r="E125" t="n">
-        <v>0.1926028144375155</v>
+        <v>0.001309927644246723</v>
       </c>
       <c r="F125" t="n">
-        <v>1.446090439503192</v>
+        <v>3.635233680998478</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>4.297651631684394</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="B126" t="n">
-        <v>7.045960076662709e-05</v>
+        <v>6.473230751553452e-05</v>
       </c>
       <c r="C126" t="n">
-        <v>1.647414559904416e-06</v>
+        <v>1.457090230218479e-06</v>
       </c>
       <c r="D126" t="n">
-        <v>21.63877542071552</v>
+        <v>16.29031322037502</v>
       </c>
       <c r="E126" t="n">
-        <v>0.001407528895398332</v>
+        <v>0.01227772025935973</v>
       </c>
       <c r="F126" t="n">
-        <v>3.606462570119254</v>
+        <v>2.715052203395836</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>4.300136893374075</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="B127" t="n">
-        <v>9.570300194425803e-05</v>
+        <v>6.197329030789761e-05</v>
       </c>
       <c r="C127" t="n">
-        <v>2.15699118035848e-06</v>
+        <v>1.392899593707002e-06</v>
       </c>
       <c r="D127" t="n">
-        <v>16.60222292212483</v>
+        <v>9.627280026100479</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0108618583272052</v>
+        <v>0.1412511889362999</v>
       </c>
       <c r="F127" t="n">
-        <v>2.767037153687472</v>
+        <v>1.604546671016746</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>4.300239731788821</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="B128" t="n">
-        <v>9.166188872963791e-05</v>
+        <v>0.0001008908919368994</v>
       </c>
       <c r="C128" t="n">
-        <v>2.057437302008031e-06</v>
+        <v>2.244275203736292e-06</v>
       </c>
       <c r="D128" t="n">
-        <v>9.080317151556569</v>
+        <v>20.94159504780215</v>
       </c>
       <c r="E128" t="n">
-        <v>0.1691112233221671</v>
+        <v>0.001879471735880358</v>
       </c>
       <c r="F128" t="n">
-        <v>1.513386191926095</v>
+        <v>3.490265841300358</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>4.30191942589633</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0001488939187180387</v>
+        <v>0.0001844763740315614</v>
       </c>
       <c r="C129" t="n">
-        <v>3.311531083320219e-06</v>
+        <v>4.110054798047604e-06</v>
       </c>
       <c r="D129" t="n">
-        <v>18.05399445360102</v>
+        <v>15.79846872599364</v>
       </c>
       <c r="E129" t="n">
-        <v>0.006098667549756823</v>
+        <v>0.01487752991744379</v>
       </c>
       <c r="F129" t="n">
-        <v>3.00899907560017</v>
+        <v>2.63307812099894</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>4.306187220108267</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0002711365398624544</v>
+        <v>0.0002018104670420222</v>
       </c>
       <c r="C130" t="n">
-        <v>6.046480787099696e-06</v>
+        <v>4.571612173179441e-06</v>
       </c>
       <c r="D130" t="n">
-        <v>15.95437662777662</v>
+        <v>16.47177032772247</v>
       </c>
       <c r="E130" t="n">
-        <v>0.01400095283832546</v>
+        <v>0.01143376454379047</v>
       </c>
       <c r="F130" t="n">
-        <v>2.659062771296103</v>
+        <v>2.745295054620412</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>4.308783890080591</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0002983841156841332</v>
+        <v>0.0002143060862025745</v>
       </c>
       <c r="C131" t="n">
-        <v>6.750449719305634e-06</v>
+        <v>4.974729112965834e-06</v>
       </c>
       <c r="D131" t="n">
-        <v>15.99024012311214</v>
+        <v>20.45280794776693</v>
       </c>
       <c r="E131" t="n">
-        <v>0.01380644890140199</v>
+        <v>0.002299390984521013</v>
       </c>
       <c r="F131" t="n">
-        <v>2.66504002051869</v>
+        <v>3.408801324627822</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>4.310729250092858</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0003199846700227824</v>
+        <v>0.0002437446873707118</v>
       </c>
       <c r="C132" t="n">
-        <v>7.411552633874463e-06</v>
+        <v>5.356134916294604e-06</v>
       </c>
       <c r="D132" t="n">
-        <v>23.31140059878888</v>
+        <v>22.85090643745447</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0006986169687444821</v>
+        <v>0.0008479828338503348</v>
       </c>
       <c r="F132" t="n">
-        <v>3.885233433131479</v>
+        <v>3.808484406242412</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>4.31302597468884</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0003596397169062209</v>
+        <v>0.0002771089331527121</v>
       </c>
       <c r="C133" t="n">
-        <v>7.901802222950259e-06</v>
+        <v>5.978014229134274e-06</v>
       </c>
       <c r="D133" t="n">
-        <v>22.79060061761867</v>
+        <v>18.43546239905666</v>
       </c>
       <c r="E133" t="n">
-        <v>0.0008697321935988725</v>
+        <v>0.005231294715537452</v>
       </c>
       <c r="F133" t="n">
-        <v>3.798433436269779</v>
+        <v>3.072577066509443</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>4.315699773472222</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0004107888570524585</v>
+        <v>0.0002914839854790689</v>
       </c>
       <c r="C134" t="n">
-        <v>8.853459329491031e-06</v>
+        <v>6.272928752451822e-06</v>
       </c>
       <c r="D134" t="n">
-        <v>17.80649198843543</v>
+        <v>21.8539812511671</v>
       </c>
       <c r="E134" t="n">
-        <v>0.006734422017029926</v>
+        <v>0.001286892639912651</v>
       </c>
       <c r="F134" t="n">
-        <v>2.967748664739238</v>
+        <v>3.64233020852785</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>4.318107906350845</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0004309544150551839</v>
+        <v>0.0002834642089405916</v>
       </c>
       <c r="C135" t="n">
-        <v>9.27860043960173e-06</v>
+        <v>6.266830466318008e-06</v>
       </c>
       <c r="D135" t="n">
-        <v>22.1689809027109</v>
+        <v>27.12249082440808</v>
       </c>
       <c r="E135" t="n">
-        <v>0.001128385313841257</v>
+        <v>0.000137352463212484</v>
       </c>
       <c r="F135" t="n">
-        <v>3.694830150451817</v>
+        <v>4.520415137401347</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>4.320910253152659</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0004201097609343093</v>
+        <v>0.0002576280841501104</v>
       </c>
       <c r="C136" t="n">
-        <v>9.279745126261194e-06</v>
+        <v>5.656309745866968e-06</v>
       </c>
       <c r="D136" t="n">
-        <v>26.03128857498081</v>
+        <v>23.12669070306668</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0002196741129502056</v>
+        <v>0.0007551380760667764</v>
       </c>
       <c r="F136" t="n">
-        <v>4.338548095830134</v>
+        <v>3.854448450511113</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>4.323318386031281</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0003822008847516125</v>
+        <v>0.0002074498181191894</v>
       </c>
       <c r="C137" t="n">
-        <v>8.38096819909398e-06</v>
+        <v>4.720034759263733e-06</v>
       </c>
       <c r="D137" t="n">
-        <v>21.89679434370216</v>
+        <v>34.10168447292546</v>
       </c>
       <c r="E137" t="n">
-        <v>0.001264131530226656</v>
+        <v>6.429972032565277e-06</v>
       </c>
       <c r="F137" t="n">
-        <v>3.64946572395036</v>
+        <v>5.68361407882091</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>4.327757577601127</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0003058048446119095</v>
+        <v>0.0001460839597262141</v>
       </c>
       <c r="C138" t="n">
-        <v>6.962581229347503e-06</v>
+        <v>3.314665693347565e-06</v>
       </c>
       <c r="D138" t="n">
-        <v>37.97102311467381</v>
+        <v>40.21006242000673</v>
       </c>
       <c r="E138" t="n">
-        <v>1.138108296508693e-06</v>
+        <v>4.142016391417328e-07</v>
       </c>
       <c r="F138" t="n">
-        <v>6.328503852445635</v>
+        <v>6.701677070001121</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>4.331931103266214</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0002169960073962664</v>
+        <v>9.933264236640705e-05</v>
       </c>
       <c r="C139" t="n">
-        <v>4.914584314508475e-06</v>
+        <v>2.34381996734616e-06</v>
       </c>
       <c r="D139" t="n">
-        <v>37.09474783364849</v>
+        <v>23.33320984109405</v>
       </c>
       <c r="E139" t="n">
-        <v>1.687562298685368e-06</v>
+        <v>0.0006922241740313303</v>
       </c>
       <c r="F139" t="n">
-        <v>6.182457972274748</v>
+        <v>3.888868306849008</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>4.340535250633251</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0001470513088769697</v>
+        <v>8.178207668646219e-05</v>
       </c>
       <c r="C140" t="n">
-        <v>3.466387985369391e-06</v>
+        <v>2.086347193399501e-06</v>
       </c>
       <c r="D140" t="n">
-        <v>24.0033165658883</v>
+        <v>26.22535016226405</v>
       </c>
       <c r="E140" t="n">
-        <v>0.0005215249600200159</v>
+        <v>0.0002021163055241836</v>
       </c>
       <c r="F140" t="n">
-        <v>4.000552760981384</v>
+        <v>4.370891693710675</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>4.344845894184665</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0001208381482264112</v>
+        <v>6.608268229384982e-05</v>
       </c>
       <c r="C141" t="n">
-        <v>3.087270646637842e-06</v>
+        <v>1.594593394852964e-06</v>
       </c>
       <c r="D141" t="n">
-        <v>25.42420789761758</v>
+        <v>25.83224164031242</v>
       </c>
       <c r="E141" t="n">
-        <v>0.0002848953024341696</v>
+        <v>0.0002392451792541644</v>
       </c>
       <c r="F141" t="n">
-        <v>4.237367982936264</v>
+        <v>4.305373606718736</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>4.348762323812888</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="B142" t="n">
-        <v>9.728190341178606e-05</v>
+        <v>5.605869326112751e-05</v>
       </c>
       <c r="C142" t="n">
-        <v>2.345606672832431e-06</v>
+        <v>1.453926236905416e-06</v>
       </c>
       <c r="D142" t="n">
-        <v>26.00458274593092</v>
+        <v>29.14191652108036</v>
       </c>
       <c r="E142" t="n">
-        <v>0.0002222052233098624</v>
+        <v>5.718754752937524e-05</v>
       </c>
       <c r="F142" t="n">
-        <v>4.334097124321819</v>
+        <v>4.856986086846727</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>4.357083665539375</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="B143" t="n">
-        <v>8.366675711518116e-05</v>
+        <v>6.256654951630316e-05</v>
       </c>
       <c r="C143" t="n">
-        <v>2.166863207800914e-06</v>
+        <v>1.632483765484452e-06</v>
       </c>
       <c r="D143" t="n">
-        <v>25.83263336766207</v>
+        <v>23.18117742132826</v>
       </c>
       <c r="E143" t="n">
-        <v>0.0002392050230960344</v>
+        <v>0.0007380136373945287</v>
       </c>
       <c r="F143" t="n">
-        <v>4.305438894610345</v>
+        <v>3.863529570221376</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>4.362054188918739</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="B144" t="n">
-        <v>9.319010222962622e-05</v>
+        <v>0.0002312077533974402</v>
       </c>
       <c r="C144" t="n">
-        <v>2.428430604815229e-06</v>
+        <v>5.345323069191011e-06</v>
       </c>
       <c r="D144" t="n">
-        <v>21.44648049573285</v>
+        <v>33.8047416539433</v>
       </c>
       <c r="E144" t="n">
-        <v>0.001524648882572433</v>
+        <v>7.337323808885893e-06</v>
       </c>
       <c r="F144" t="n">
-        <v>3.574413415955475</v>
+        <v>5.63412360899055</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>4.365250749643743</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0003398413690434575</v>
+        <v>0.000438998532050615</v>
       </c>
       <c r="C145" t="n">
-        <v>7.87277130693561e-06</v>
+        <v>9.115927528184742e-06</v>
       </c>
       <c r="D145" t="n">
-        <v>37.30823706298009</v>
+        <v>43.33753011664678</v>
       </c>
       <c r="E145" t="n">
-        <v>1.533272114744513e-06</v>
+        <v>1.000103509523185e-07</v>
       </c>
       <c r="F145" t="n">
-        <v>6.218039510496681</v>
+        <v>7.222921686107797</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>4.367855989483961</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="B146" t="n">
-        <v>0.000648287060923842</v>
+        <v>0.0004885381747771091</v>
       </c>
       <c r="C146" t="n">
-        <v>1.346919912622584e-05</v>
+        <v>1.035542070015363e-05</v>
       </c>
       <c r="D146" t="n">
-        <v>44.3340179257523</v>
+        <v>42.66641309549075</v>
       </c>
       <c r="E146" t="n">
-        <v>6.346125998677238e-08</v>
+        <v>1.357838567096079e-07</v>
       </c>
       <c r="F146" t="n">
-        <v>7.389002987625383</v>
+        <v>7.111068849248458</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>4.369681371345694</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0007227046359032294</v>
+        <v>0.0005132455983533408</v>
       </c>
       <c r="C147" t="n">
-        <v>1.531549132566002e-05</v>
+        <v>1.1000977889457e-05</v>
       </c>
       <c r="D147" t="n">
-        <v>41.94127053062826</v>
+        <v>38.66634639487346</v>
       </c>
       <c r="E147" t="n">
-        <v>1.888525388287588e-07</v>
+        <v>8.320301524776818e-07</v>
       </c>
       <c r="F147" t="n">
-        <v>6.99021175510471</v>
+        <v>6.444391065812243</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>4.370624056814194</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0007587121053227192</v>
+        <v>0.0005027296419614616</v>
       </c>
       <c r="C148" t="n">
-        <v>1.626979011066517e-05</v>
+        <v>1.077162353502887e-05</v>
       </c>
       <c r="D148" t="n">
-        <v>40.9965904352342</v>
+        <v>40.44495927176153</v>
       </c>
       <c r="E148" t="n">
-        <v>2.900148288417449e-07</v>
+        <v>3.724038186414159e-07</v>
       </c>
       <c r="F148" t="n">
-        <v>6.832765072539033</v>
+        <v>6.740826545293589</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>4.371001131001594</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0007430022314835083</v>
+        <v>0.0005013147970078396</v>
       </c>
       <c r="C149" t="n">
-        <v>1.591776732261522e-05</v>
+        <v>1.07147803851092e-05</v>
       </c>
       <c r="D149" t="n">
-        <v>38.82704324801426</v>
+        <v>34.14403536040882</v>
       </c>
       <c r="E149" t="n">
-        <v>7.738583985615169e-07</v>
+        <v>6.309979349972673e-06</v>
       </c>
       <c r="F149" t="n">
-        <v>6.471173874669042</v>
+        <v>5.690672560068137</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>4.371241087302666</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0007396729874553099</v>
+        <v>0.0006190005713763238</v>
       </c>
       <c r="C150" t="n">
-        <v>1.581933222805539e-05</v>
+        <v>1.310316915080375e-05</v>
       </c>
       <c r="D150" t="n">
-        <v>35.89607289469362</v>
+        <v>40.25518530177104</v>
       </c>
       <c r="E150" t="n">
-        <v>2.887840447912913e-06</v>
+        <v>4.058256189304705e-07</v>
       </c>
       <c r="F150" t="n">
-        <v>5.982678815782269</v>
+        <v>6.709197550295173</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>4.37310074863598</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0009154872951004913</v>
+        <v>0.0006459659497631028</v>
       </c>
       <c r="C151" t="n">
-        <v>1.937295670108345e-05</v>
+        <v>1.353701816304687e-05</v>
       </c>
       <c r="D151" t="n">
-        <v>40.12146240815458</v>
+        <v>36.21920798113269</v>
       </c>
       <c r="E151" t="n">
-        <v>4.311516489330267e-07</v>
+        <v>2.498963668746693e-06</v>
       </c>
       <c r="F151" t="n">
-        <v>6.686910401359097</v>
+        <v>6.036534663522115</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>4.37479758247928</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0009550652422591778</v>
+        <v>0.0006466277011445289</v>
       </c>
       <c r="C152" t="n">
-        <v>2.001886368603988e-05</v>
+        <v>1.363116852176589e-05</v>
       </c>
       <c r="D152" t="n">
-        <v>37.00089736589767</v>
+        <v>33.22679447232274</v>
       </c>
       <c r="E152" t="n">
-        <v>1.760179724290783e-06</v>
+        <v>9.483031010013963e-06</v>
       </c>
       <c r="F152" t="n">
-        <v>6.166816227649612</v>
+        <v>5.537799078720457</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>4.376545835529954</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0009568177821422457</v>
+        <v>0.0006543255033419605</v>
       </c>
       <c r="C153" t="n">
-        <v>2.016475027520539e-05</v>
+        <v>1.370737629561367e-05</v>
       </c>
       <c r="D153" t="n">
-        <v>33.42122204973047</v>
+        <v>50.05488704706081</v>
       </c>
       <c r="E153" t="n">
-        <v>8.699480352079748e-06</v>
+        <v>4.583455636418238e-09</v>
       </c>
       <c r="F153" t="n">
-        <v>5.570203674955078</v>
+        <v>8.342481174510135</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>4.378156970694299</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0009673770818585885</v>
+        <v>0.0006630682900413146</v>
       </c>
       <c r="C154" t="n">
-        <v>2.027000463022294e-05</v>
+        <v>1.396693628878399e-05</v>
       </c>
       <c r="D154" t="n">
-        <v>50.60847461804288</v>
+        <v>42.86400555171112</v>
       </c>
       <c r="E154" t="n">
-        <v>3.549425125235793e-09</v>
+        <v>1.240988567441414e-07</v>
       </c>
       <c r="F154" t="n">
-        <v>8.434745769673812</v>
+        <v>7.144000925285186</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>4.379236774049127</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0009799685805017841</v>
+        <v>0.0006542756713077181</v>
       </c>
       <c r="C155" t="n">
-        <v>2.064014090207171e-05</v>
+        <v>1.37404422917448e-05</v>
       </c>
       <c r="D155" t="n">
-        <v>42.60861826362572</v>
+        <v>34.93215458653078</v>
       </c>
       <c r="E155" t="n">
-        <v>1.394041708575269e-07</v>
+        <v>4.441913074248626e-06</v>
       </c>
       <c r="F155" t="n">
-        <v>7.101436377270954</v>
+        <v>5.822025764421796</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>4.379845234669704</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0009625536522363268</v>
+        <v>0.0006412605431900737</v>
       </c>
       <c r="C156" t="n">
-        <v>2.02432779136048e-05</v>
+        <v>1.333830330362325e-05</v>
       </c>
       <c r="D156" t="n">
-        <v>36.48162465972239</v>
+        <v>33.50827444993919</v>
       </c>
       <c r="E156" t="n">
-        <v>2.221796081080804e-06</v>
+        <v>8.369806523364196e-06</v>
       </c>
       <c r="F156" t="n">
-        <v>6.080270776620398</v>
+        <v>5.584712408323198</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>4.382493323849399</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0009452052048698329</v>
+        <v>0.0005358010441537822</v>
       </c>
       <c r="C157" t="n">
-        <v>1.967455233903125e-05</v>
+        <v>1.107139894660441e-05</v>
       </c>
       <c r="D157" t="n">
-        <v>34.69415665228537</v>
+        <v>38.99954914047451</v>
       </c>
       <c r="E157" t="n">
-        <v>4.939144227143315e-06</v>
+        <v>7.159058234086053e-07</v>
       </c>
       <c r="F157" t="n">
-        <v>5.782359442047562</v>
+        <v>6.499924856745751</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>4.386743978325545</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0007921597588356728</v>
+        <v>0.0003942359908694716</v>
       </c>
       <c r="C158" t="n">
-        <v>1.635968174025162e-05</v>
+        <v>8.511269964957785e-06</v>
       </c>
       <c r="D158" t="n">
-        <v>37.79196632404847</v>
+        <v>33.98179382077581</v>
       </c>
       <c r="E158" t="n">
-        <v>1.23360275703213e-06</v>
+        <v>6.78207466968916e-06</v>
       </c>
       <c r="F158" t="n">
-        <v>6.298661054008078</v>
+        <v>5.663632303462635</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>4.391003202669586</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0005804029657669613</v>
+        <v>0.0002874746826572037</v>
       </c>
       <c r="C159" t="n">
-        <v>1.254090357496591e-05</v>
+        <v>6.100215961592304e-06</v>
       </c>
       <c r="D159" t="n">
-        <v>35.90310180596494</v>
+        <v>28.2141799011929</v>
       </c>
       <c r="E159" t="n">
-        <v>2.878773715005127e-06</v>
+        <v>8.562470452498916e-05</v>
       </c>
       <c r="F159" t="n">
-        <v>5.983850300994156</v>
+        <v>4.702363316865484</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>4.395073889919927</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0004241515381068266</v>
+        <v>0.000301337776825444</v>
       </c>
       <c r="C160" t="n">
-        <v>9.012349350359521e-06</v>
+        <v>6.633569920144119e-06</v>
       </c>
       <c r="D160" t="n">
-        <v>31.29312957562425</v>
+        <v>43.723447838985</v>
       </c>
       <c r="E160" t="n">
-        <v>2.228265439067296e-05</v>
+        <v>8.386717853657289e-08</v>
       </c>
       <c r="F160" t="n">
-        <v>5.215521595937375</v>
+        <v>7.2872413064975</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>4.396290811161082</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0004462663362177779</v>
+        <v>0.0002311230475389947</v>
       </c>
       <c r="C161" t="n">
-        <v>9.819859415939715e-06</v>
+        <v>4.980525707658507e-06</v>
       </c>
       <c r="D161" t="n">
-        <v>44.23897573816</v>
+        <v>39.33663939900235</v>
       </c>
       <c r="E161" t="n">
-        <v>6.627758094714809e-08</v>
+        <v>6.148272383403658e-07</v>
       </c>
       <c r="F161" t="n">
-        <v>7.373162623026666</v>
+        <v>6.556106566500392</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>4.399607350036622</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0003425606239656424</v>
+        <v>0.0002313309449900441</v>
       </c>
       <c r="C162" t="n">
-        <v>7.371704889153658e-06</v>
+        <v>5.018048532664626e-06</v>
       </c>
       <c r="D162" t="n">
-        <v>38.26267873372933</v>
+        <v>31.06396308807445</v>
       </c>
       <c r="E162" t="n">
-        <v>9.980459153935233e-07</v>
+        <v>2.464632034706094e-05</v>
       </c>
       <c r="F162" t="n">
-        <v>6.377113122288222</v>
+        <v>5.177327181345742</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>4.403952273059619</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0003429911504563723</v>
+        <v>0.0002229584979951528</v>
       </c>
       <c r="C163" t="n">
-        <v>7.441418089352561e-06</v>
+        <v>4.80224919020527e-06</v>
       </c>
       <c r="D163" t="n">
-        <v>31.68384181740837</v>
+        <v>38.96046324297524</v>
       </c>
       <c r="E163" t="n">
-        <v>1.875956728825184e-05</v>
+        <v>7.28646387179998e-07</v>
       </c>
       <c r="F163" t="n">
-        <v>5.280640302901396</v>
+        <v>6.493410540495873</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>4.406326126466659</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0003285928657215281</v>
+        <v>0.0002048172682296783</v>
       </c>
       <c r="C164" t="n">
-        <v>7.080818270154007e-06</v>
+        <v>4.442431635065816e-06</v>
       </c>
       <c r="D164" t="n">
-        <v>38.72004036489956</v>
+        <v>27.61276994901227</v>
       </c>
       <c r="E164" t="n">
-        <v>8.121250274103399e-07</v>
+        <v>0.0001111239761727173</v>
       </c>
       <c r="F164" t="n">
-        <v>6.453340060816593</v>
+        <v>4.602128324835379</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>4.408974215646356</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0003027377701345057</v>
+        <v>0.0001903323615890821</v>
       </c>
       <c r="C165" t="n">
-        <v>6.565936904939854e-06</v>
+        <v>4.214187104116014e-06</v>
       </c>
       <c r="D165" t="n">
-        <v>29.27198622341381</v>
+        <v>25.86660186730625</v>
       </c>
       <c r="E165" t="n">
-        <v>5.403344359508121e-05</v>
+        <v>0.0002357480567614777</v>
       </c>
       <c r="F165" t="n">
-        <v>4.878664370568969</v>
+        <v>4.311100311217708</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>4.411759422712378</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0002800278754754092</v>
+        <v>0.0001829170756671962</v>
       </c>
       <c r="C166" t="n">
-        <v>6.21627722926483e-06</v>
+        <v>4.230409629358011e-06</v>
       </c>
       <c r="D166" t="n">
-        <v>29.38644061747802</v>
+        <v>33.96895126430711</v>
       </c>
       <c r="E166" t="n">
-        <v>5.140075680896368e-05</v>
+        <v>6.820907775313595e-06</v>
       </c>
       <c r="F166" t="n">
-        <v>4.897740102913002</v>
+        <v>5.661491877384518</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>4.41349053602726</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0002715075119917925</v>
+        <v>0.0001742536814131768</v>
       </c>
       <c r="C167" t="n">
-        <v>6.274735777015115e-06</v>
+        <v>3.795507052506462e-06</v>
       </c>
       <c r="D167" t="n">
-        <v>37.83652850119557</v>
+        <v>34.4186487115052</v>
       </c>
       <c r="E167" t="n">
-        <v>1.209117482387017e-06</v>
+        <v>5.584070168356015e-06</v>
       </c>
       <c r="F167" t="n">
-        <v>6.306088083532594</v>
+        <v>5.736441451917533</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>4.414321813213119</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0002583148820207756</v>
+        <v>0.0001464305947155629</v>
       </c>
       <c r="C168" t="n">
-        <v>5.624580759549267e-06</v>
+        <v>3.227004246595638e-06</v>
       </c>
       <c r="D168" t="n">
-        <v>34.82225682295442</v>
+        <v>28.07696694595179</v>
       </c>
       <c r="E168" t="n">
-        <v>4.665016228329767e-06</v>
+        <v>9.087789981263958e-05</v>
       </c>
       <c r="F168" t="n">
-        <v>5.803709470492404</v>
+        <v>4.679494490991964</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>4.419515153157765</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="B169" t="n">
-        <v>0.000217224976000933</v>
+        <v>0.0001324548149227236</v>
       </c>
       <c r="C169" t="n">
-        <v>4.779350865421566e-06</v>
+        <v>2.885331245592623e-06</v>
       </c>
       <c r="D169" t="n">
-        <v>25.96101920346267</v>
+        <v>30.48713742165878</v>
       </c>
       <c r="E169" t="n">
-        <v>0.0002263959336024459</v>
+        <v>3.175250442868347e-05</v>
       </c>
       <c r="F169" t="n">
-        <v>4.326836533910445</v>
+        <v>5.081189570276464</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>4.421511932377406</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0001958292793077626</v>
+        <v>8.492109265430535e-05</v>
       </c>
       <c r="C170" t="n">
-        <v>4.26554877828793e-06</v>
+        <v>2.117743001437071e-06</v>
       </c>
       <c r="D170" t="n">
-        <v>31.47248133360237</v>
+        <v>30.04877062484508</v>
       </c>
       <c r="E170" t="n">
-        <v>2.059069799005884e-05</v>
+        <v>3.847805812089422e-05</v>
       </c>
       <c r="F170" t="n">
-        <v>5.245413555600396</v>
+        <v>5.008128437474181</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>4.430664551289752</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0001247184540451164</v>
+        <v>6.246544511068108e-05</v>
       </c>
       <c r="C171" t="n">
-        <v>3.1184192468328e-06</v>
+        <v>1.491929207577046e-06</v>
       </c>
       <c r="D171" t="n">
-        <v>27.10058888225118</v>
+        <v>32.05775333622466</v>
       </c>
       <c r="E171" t="n">
-        <v>0.0001386570605595772</v>
+        <v>1.590685773472711e-05</v>
       </c>
       <c r="F171" t="n">
-        <v>4.516764813708531</v>
+        <v>5.342958889370777</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>4.447624319854858</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="B172" t="n">
-        <v>9.28068346951861e-05</v>
+        <v>6.890517155520558e-05</v>
       </c>
       <c r="C172" t="n">
-        <v>2.212965012095272e-06</v>
+        <v>1.701178609613939e-06</v>
       </c>
       <c r="D172" t="n">
-        <v>28.53100704368467</v>
+        <v>34.15437388664384</v>
       </c>
       <c r="E172" t="n">
-        <v>7.461436780554961e-05</v>
+        <v>6.281026278251105e-06</v>
       </c>
       <c r="F172" t="n">
-        <v>4.755167840614113</v>
+        <v>5.692395647773973</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>4.464926883135782</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="B173" t="n">
-        <v>0.0001013625061108537</v>
+        <v>9.19359470615328e-05</v>
       </c>
       <c r="C173" t="n">
-        <v>2.502233235597901e-06</v>
+        <v>2.439896206451115e-06</v>
       </c>
       <c r="D173" t="n">
-        <v>31.40730394750061</v>
+        <v>18.05698600079874</v>
       </c>
       <c r="E173" t="n">
-        <v>2.119030624883805e-05</v>
+        <v>0.006091351197919734</v>
       </c>
       <c r="F173" t="n">
-        <v>5.234550657916769</v>
+        <v>3.00949766679979</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>4.482066618926692</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0001363833131431613</v>
+        <v>0.0001190820427077886</v>
       </c>
       <c r="C174" t="n">
-        <v>3.616104161390169e-06</v>
+        <v>2.78583039861745e-06</v>
       </c>
       <c r="D174" t="n">
-        <v>17.73370313395899</v>
+        <v>29.34618460069418</v>
       </c>
       <c r="E174" t="n">
-        <v>0.006933310966893941</v>
+        <v>5.231193075919515e-05</v>
       </c>
       <c r="F174" t="n">
-        <v>2.955617188993165</v>
+        <v>4.891030766782364</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>4.490182283823687</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0001757891621389516</v>
+        <v>0.0001314477928173511</v>
       </c>
       <c r="C175" t="n">
-        <v>4.112452031206913e-06</v>
+        <v>3.438207246779605e-06</v>
       </c>
       <c r="D175" t="n">
-        <v>31.40934830356822</v>
+        <v>22.36403743225096</v>
       </c>
       <c r="E175" t="n">
-        <v>2.117123870324298e-05</v>
+        <v>0.001040006778141294</v>
       </c>
       <c r="F175" t="n">
-        <v>5.234891383928037</v>
+        <v>3.727339572041827</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>4.493233156794469</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0001936499852528843</v>
+        <v>0.0001818393399852789</v>
       </c>
       <c r="C176" t="n">
-        <v>5.076740147719287e-06</v>
+        <v>4.951319504602119e-06</v>
       </c>
       <c r="D176" t="n">
-        <v>24.00596775694889</v>
+        <v>22.3358900264308</v>
       </c>
       <c r="E176" t="n">
-        <v>0.000520939671881309</v>
+        <v>0.001052327649887605</v>
       </c>
       <c r="F176" t="n">
-        <v>4.000994626158149</v>
+        <v>3.722648337738467</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>4.499292053396556</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0002684065674683814</v>
+        <v>0.0002706866814534105</v>
       </c>
       <c r="C177" t="n">
-        <v>7.287878763252065e-06</v>
+        <v>6.738066796052484e-06</v>
       </c>
       <c r="D177" t="n">
-        <v>19.25390363551411</v>
+        <v>25.12871413825748</v>
       </c>
       <c r="E177" t="n">
-        <v>0.003755641017031909</v>
+        <v>0.0003232149929093523</v>
       </c>
       <c r="F177" t="n">
-        <v>3.208983939252352</v>
+        <v>4.188119023042914</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>4.507699093801998</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0004020612162150266</v>
+        <v>0.0003216245264380854</v>
       </c>
       <c r="C178" t="n">
-        <v>1.000346414736083e-05</v>
+        <v>8.242618801967888e-06</v>
       </c>
       <c r="D178" t="n">
-        <v>25.04824024854298</v>
+        <v>22.93889338802588</v>
       </c>
       <c r="E178" t="n">
-        <v>0.0003345028197583387</v>
+        <v>0.0008172052336747488</v>
       </c>
       <c r="F178" t="n">
-        <v>4.174706708090497</v>
+        <v>3.823148898004314</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>4.512069726428679</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0004724636155003034</v>
+        <v>0.0003940573646265231</v>
       </c>
       <c r="C179" t="n">
-        <v>1.212875036452284e-05</v>
+        <v>9.674834604927032e-06</v>
       </c>
       <c r="D179" t="n">
-        <v>19.40414674687826</v>
+        <v>28.69709810739138</v>
       </c>
       <c r="E179" t="n">
-        <v>0.003532842632822964</v>
+        <v>6.941424526865158e-05</v>
       </c>
       <c r="F179" t="n">
-        <v>3.234024457813044</v>
+        <v>4.782849684565229</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>4.516303241169035</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0005776612405362157</v>
+        <v>0.0005300218966671444</v>
       </c>
       <c r="C180" t="n">
-        <v>1.421645750948625e-05</v>
+        <v>1.243799548766529e-05</v>
       </c>
       <c r="D180" t="n">
-        <v>28.4662574692411</v>
+        <v>48.76790880829535</v>
       </c>
       <c r="E180" t="n">
-        <v>7.674436697445207e-05</v>
+        <v>8.297460702545894e-09</v>
       </c>
       <c r="F180" t="n">
-        <v>4.744376244873517</v>
+        <v>8.127984801382558</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>4.520571035380971</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0007808798649715213</v>
+        <v>0.000519392894227181</v>
       </c>
       <c r="C181" t="n">
-        <v>1.835302878861224e-05</v>
+        <v>1.126740404169889e-05</v>
       </c>
       <c r="D181" t="n">
-        <v>50.48319554738212</v>
+        <v>48.61034040848192</v>
       </c>
       <c r="E181" t="n">
-        <v>3.760920389687313e-09</v>
+        <v>8.922055323987607e-09</v>
       </c>
       <c r="F181" t="n">
-        <v>8.413865924563686</v>
+        <v>8.101723401413652</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>4.520622454588343</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0007677007376968302</v>
+        <v>0.0007869959951738358</v>
       </c>
       <c r="C182" t="n">
-        <v>1.662519265475947e-05</v>
+        <v>1.79803260294264e-05</v>
       </c>
       <c r="D182" t="n">
-        <v>48.75869260086921</v>
+        <v>33.74689839300358</v>
       </c>
       <c r="E182" t="n">
-        <v>8.332762966843277e-09</v>
+        <v>7.528322379772703e-06</v>
       </c>
       <c r="F182" t="n">
-        <v>8.126448766811535</v>
+        <v>5.624483065500596</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>4.524727421310266</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="B183" t="n">
-        <v>0.001165004084630179</v>
+        <v>0.001008663645466914</v>
       </c>
       <c r="C183" t="n">
-        <v>2.660943053423062e-05</v>
+        <v>2.283132168854066e-05</v>
       </c>
       <c r="D183" t="n">
-        <v>32.94460287939972</v>
+        <v>35.13960253586441</v>
       </c>
       <c r="E183" t="n">
-        <v>1.074634778464321e-05</v>
+        <v>4.049247965499873e-06</v>
       </c>
       <c r="F183" t="n">
-        <v>5.490767146566621</v>
+        <v>5.856600422644068</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>4.529132333408531</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="B184" t="n">
-        <v>0.001489201895327516</v>
+        <v>0.001316718789141248</v>
       </c>
       <c r="C184" t="n">
-        <v>3.371694675441002e-05</v>
+        <v>2.7484990539778e-05</v>
       </c>
       <c r="D184" t="n">
-        <v>36.11376057472798</v>
+        <v>38.10040358182495</v>
       </c>
       <c r="E184" t="n">
-        <v>2.619777237264648e-06</v>
+        <v>1.073714820552027e-06</v>
       </c>
       <c r="F184" t="n">
-        <v>6.018960095787996</v>
+        <v>6.350067263637492</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>4.533597234582063</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="B185" t="n">
-        <v>0.001943520653058881</v>
+        <v>0.001538979965861359</v>
       </c>
       <c r="C185" t="n">
-        <v>4.058187764145264e-05</v>
+        <v>3.197806580385744e-05</v>
       </c>
       <c r="D185" t="n">
-        <v>39.49318707549098</v>
+        <v>54.33912847471056</v>
       </c>
       <c r="E185" t="n">
-        <v>5.728419573738091e-07</v>
+        <v>6.302101472791119e-10</v>
       </c>
       <c r="F185" t="n">
-        <v>6.582197845915164</v>
+        <v>9.05652141245176</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>4.535979657856999</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="B186" t="n">
-        <v>0.002275579799306329</v>
+        <v>0.001498111709431081</v>
       </c>
       <c r="C186" t="n">
-        <v>4.728034068440307e-05</v>
+        <v>3.014644328832178e-05</v>
       </c>
       <c r="D186" t="n">
-        <v>55.20534289027712</v>
+        <v>47.37029928592399</v>
       </c>
       <c r="E186" t="n">
-        <v>4.213333435903187e-10</v>
+        <v>1.578424690089195e-08</v>
       </c>
       <c r="F186" t="n">
-        <v>9.200890481712854</v>
+        <v>7.895049880987332</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>4.540033205371549</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="B187" t="n">
-        <v>0.002213492942424149</v>
+        <v>0.001472128771076602</v>
       </c>
       <c r="C187" t="n">
-        <v>4.454752514447618e-05</v>
+        <v>3.001895717740242e-05</v>
       </c>
       <c r="D187" t="n">
-        <v>47.93875195020159</v>
+        <v>47.79923311808588</v>
       </c>
       <c r="E187" t="n">
-        <v>1.215384462101482e-08</v>
+        <v>1.295936293018861e-08</v>
       </c>
       <c r="F187" t="n">
-        <v>7.989791991700265</v>
+        <v>7.966538853014313</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>4.541790028290118</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="B188" t="n">
-        <v>0.002173485404111664</v>
+        <v>0.00138730729371521</v>
       </c>
       <c r="C188" t="n">
-        <v>4.433490803182472e-05</v>
+        <v>2.850699578944621e-05</v>
       </c>
       <c r="D188" t="n">
-        <v>48.77989410263658</v>
+        <v>46.05794205863815</v>
       </c>
       <c r="E188" t="n">
-        <v>8.251774387699564e-09</v>
+        <v>2.882948111642643e-08</v>
       </c>
       <c r="F188" t="n">
-        <v>8.129982350439429</v>
+        <v>7.676323676439693</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>4.54406961315031</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="B189" t="n">
-        <v>0.002050333167984425</v>
+        <v>0.001204306485111685</v>
       </c>
       <c r="C189" t="n">
-        <v>4.213703517162631e-05</v>
+        <v>2.405001067113071e-05</v>
       </c>
       <c r="D189" t="n">
-        <v>46.234637917676</v>
+        <v>49.37769253826621</v>
       </c>
       <c r="E189" t="n">
-        <v>2.658581773241708e-08</v>
+        <v>6.264510066053269e-09</v>
       </c>
       <c r="F189" t="n">
-        <v>7.705772986279334</v>
+        <v>8.229615423044368</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>4.54908298586915</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="B190" t="n">
-        <v>0.001779250757941642</v>
+        <v>0.001145036499478906</v>
       </c>
       <c r="C190" t="n">
-        <v>3.553771076769268e-05</v>
+        <v>2.306465301832813e-05</v>
       </c>
       <c r="D190" t="n">
-        <v>50.17335049567121</v>
+        <v>52.65104770697709</v>
       </c>
       <c r="E190" t="n">
-        <v>4.339508618615184e-09</v>
+        <v>1.379299237464172e-09</v>
       </c>
       <c r="F190" t="n">
-        <v>8.362225082611868</v>
+        <v>8.775174617829515</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>4.553067974440538</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="B191" t="n">
-        <v>0.001692675780320442</v>
+        <v>0.0009820426851422047</v>
       </c>
       <c r="C191" t="n">
-        <v>3.409524451951267e-05</v>
+        <v>1.985390314137215e-05</v>
       </c>
       <c r="D191" t="n">
-        <v>52.80631452558745</v>
+        <v>56.77694125784803</v>
       </c>
       <c r="E191" t="n">
-        <v>1.283523018105543e-09</v>
+        <v>2.027077636394815e-10</v>
       </c>
       <c r="F191" t="n">
-        <v>8.80105242093124</v>
+        <v>9.462823542974672</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>4.557044393144028</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="B192" t="n">
-        <v>0.001449998082358255</v>
+        <v>0.0007809081697606532</v>
       </c>
       <c r="C192" t="n">
-        <v>2.93249331250527e-05</v>
+        <v>1.587581569994307e-05</v>
       </c>
       <c r="D192" t="n">
-        <v>57.8209339008022</v>
+        <v>58.32097138183844</v>
       </c>
       <c r="E192" t="n">
-        <v>1.245791307626728e-10</v>
+        <v>9.864743708770956e-11</v>
       </c>
       <c r="F192" t="n">
-        <v>9.636822316800368</v>
+        <v>9.720161896973073</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>4.561577853260723</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="B193" t="n">
-        <v>0.00115329631089583</v>
+        <v>0.0006589802206634521</v>
       </c>
       <c r="C193" t="n">
-        <v>2.344804706580329e-05</v>
+        <v>1.353048629734218e-05</v>
       </c>
       <c r="D193" t="n">
-        <v>58.58281602193557</v>
+        <v>47.43333551499008</v>
       </c>
       <c r="E193" t="n">
-        <v>8.729414416083532e-11</v>
+        <v>1.533353256716267e-08</v>
       </c>
       <c r="F193" t="n">
-        <v>9.763802670322596</v>
+        <v>7.905555919165013</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>4.56575137892581</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="B194" t="n">
-        <v>0.000973465575384854</v>
+        <v>0.000483461718876406</v>
       </c>
       <c r="C194" t="n">
-        <v>1.999823584924764e-05</v>
+        <v>1.031335840263232e-05</v>
       </c>
       <c r="D194" t="n">
-        <v>49.25839287771596</v>
+        <v>54.36747078831618</v>
       </c>
       <c r="E194" t="n">
-        <v>6.618758663153214e-09</v>
+        <v>6.21966845450558e-10</v>
       </c>
       <c r="F194" t="n">
-        <v>8.209732146285994</v>
+        <v>9.061245131386029</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>4.570207710231447</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="B195" t="n">
-        <v>0.000713781272804839</v>
+        <v>0.0005012934164250754</v>
       </c>
       <c r="C195" t="n">
-        <v>1.522091132823905e-05</v>
+        <v>1.036980659765545e-05</v>
       </c>
       <c r="D195" t="n">
-        <v>54.2369838146336</v>
+        <v>50.99362960362024</v>
       </c>
       <c r="E195" t="n">
-        <v>6.608328156645853e-10</v>
+        <v>2.97063649244289e-09</v>
       </c>
       <c r="F195" t="n">
-        <v>9.039497302438933</v>
+        <v>8.49893826727004</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>4.570233419835134</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0007406545066814534</v>
+        <v>0.000337871684992127</v>
       </c>
       <c r="C196" t="n">
-        <v>1.532492451962716e-05</v>
+        <v>7.106529198243103e-06</v>
       </c>
       <c r="D196" t="n">
-        <v>51.67729379006959</v>
+        <v>43.21792218453243</v>
       </c>
       <c r="E196" t="n">
-        <v>2.165269595494513e-09</v>
+        <v>1.056154471529318e-07</v>
       </c>
       <c r="F196" t="n">
-        <v>8.612882298344932</v>
+        <v>7.202987030755406</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>4.574141279595461</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="B197" t="n">
-        <v>0.00049858078567783</v>
+        <v>0.0002068219061263687</v>
       </c>
       <c r="C197" t="n">
-        <v>1.049260149197423e-05</v>
+        <v>4.63701664166151e-06</v>
       </c>
       <c r="D197" t="n">
-        <v>42.9392320983348</v>
+        <v>31.47572233705648</v>
       </c>
       <c r="E197" t="n">
-        <v>1.199181348341539e-07</v>
+        <v>2.056132474940941e-05</v>
       </c>
       <c r="F197" t="n">
-        <v>7.1565386830558</v>
+        <v>5.245953722842747</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>4.578657599976365</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0003061278089752024</v>
+        <v>0.0002095041212617325</v>
       </c>
       <c r="C198" t="n">
-        <v>6.861045757148927e-06</v>
+        <v>4.559268279166748e-06</v>
       </c>
       <c r="D198" t="n">
-        <v>32.19849496644835</v>
+        <v>29.14052700411075</v>
       </c>
       <c r="E198" t="n">
-        <v>1.494832310811697e-05</v>
+        <v>5.722220712462658e-05</v>
       </c>
       <c r="F198" t="n">
-        <v>5.366415827741392</v>
+        <v>4.856754500685125</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>4.578820427466379</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0003087295795286184</v>
+        <v>0.0001564833506769646</v>
       </c>
       <c r="C199" t="n">
-        <v>6.729345769335433e-06</v>
+        <v>3.535767127302417e-06</v>
       </c>
       <c r="D199" t="n">
-        <v>31.89491936226597</v>
+        <v>19.56605502071792</v>
       </c>
       <c r="E199" t="n">
-        <v>1.709208083561679e-05</v>
+        <v>0.003307163773767947</v>
       </c>
       <c r="F199" t="n">
-        <v>5.315819893710994</v>
+        <v>3.261009170119653</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>4.582256944492457</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0002308660457281311</v>
+        <v>0.0001501674863445198</v>
       </c>
       <c r="C200" t="n">
-        <v>5.217069914369818e-06</v>
+        <v>3.31254381777804e-06</v>
       </c>
       <c r="D200" t="n">
-        <v>19.58942663856751</v>
+        <v>27.53562083360274</v>
       </c>
       <c r="E200" t="n">
-        <v>0.003275770034170685</v>
+        <v>0.0001148960102897207</v>
       </c>
       <c r="F200" t="n">
-        <v>3.264904439761251</v>
+        <v>4.58927013893379</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>4.583388167054657</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0002211610978150216</v>
+        <v>0.0001396937233720736</v>
       </c>
       <c r="C201" t="n">
-        <v>4.88556262289112e-06</v>
+        <v>3.089963600975697e-06</v>
       </c>
       <c r="D201" t="n">
-        <v>29.82951414202804</v>
+        <v>24.27557451048294</v>
       </c>
       <c r="E201" t="n">
-        <v>4.235304558422822e-05</v>
+        <v>0.0004646750293805622</v>
       </c>
       <c r="F201" t="n">
-        <v>4.971585690338006</v>
+        <v>4.04592908508049</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>4.583662402827311</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="B202" t="n">
-        <v>0.000206459265051027</v>
+        <v>0.000236240202335205</v>
       </c>
       <c r="C202" t="n">
-        <v>4.56744116106204e-06</v>
+        <v>5.299466985565974e-06</v>
       </c>
       <c r="D202" t="n">
-        <v>23.48807502480455</v>
+        <v>30.17390138910755</v>
       </c>
       <c r="E202" t="n">
-        <v>0.0006484541220996861</v>
+        <v>3.642612468766145e-05</v>
       </c>
       <c r="F202" t="n">
-        <v>3.914679170800758</v>
+        <v>5.028983564851258</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>4.586636146987034</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0003487022236739957</v>
+        <v>0.0001828039858728752</v>
       </c>
       <c r="C203" t="n">
-        <v>7.833973770142414e-06</v>
+        <v>3.825137875792947e-06</v>
       </c>
       <c r="D203" t="n">
-        <v>33.26146869093682</v>
+        <v>40.27783239005539</v>
       </c>
       <c r="E203" t="n">
-        <v>9.338337382616683e-06</v>
+        <v>4.016854227791769e-07</v>
       </c>
       <c r="F203" t="n">
-        <v>5.543578115156137</v>
+        <v>6.712972065009232</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>4.58796447651083</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0002694781500806527</v>
+        <v>0.0002882752654002476</v>
       </c>
       <c r="C204" t="n">
-        <v>5.656485321487363e-06</v>
+        <v>6.393635457229364e-06</v>
       </c>
       <c r="D204" t="n">
-        <v>42.30703521643164</v>
+        <v>29.10239447562088</v>
       </c>
       <c r="E204" t="n">
-        <v>1.599128756288224e-07</v>
+        <v>5.818152362118138e-05</v>
       </c>
       <c r="F204" t="n">
-        <v>7.051172536071939</v>
+        <v>4.850399079270146</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>4.591649519705875</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0004247079690582513</v>
+        <v>0.0002732909188540334</v>
       </c>
       <c r="C205" t="n">
-        <v>9.427212614811175e-06</v>
+        <v>6.065202581184148e-06</v>
       </c>
       <c r="D205" t="n">
-        <v>31.29549337984707</v>
+        <v>29.20689327527144</v>
       </c>
       <c r="E205" t="n">
-        <v>2.225948316818065e-05</v>
+        <v>5.558977645604442e-05</v>
       </c>
       <c r="F205" t="n">
-        <v>5.215915563307845</v>
+        <v>4.867815545878574</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>4.591709508781143</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0004508656766638363</v>
+        <v>0.000262447870435128</v>
       </c>
       <c r="C206" t="n">
-        <v>9.369411225220974e-06</v>
+        <v>5.879522553425128e-06</v>
       </c>
       <c r="D206" t="n">
-        <v>46.69179468567683</v>
+        <v>33.81986507639562</v>
       </c>
       <c r="E206" t="n">
-        <v>2.155555849830249e-08</v>
+        <v>7.288184162614582e-06</v>
       </c>
       <c r="F206" t="n">
-        <v>7.781965780946138</v>
+        <v>5.636644179399269</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>4.593303504209699</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0004028047439792973</v>
+        <v>0.0002597882139435068</v>
       </c>
       <c r="C207" t="n">
-        <v>8.947081440922173e-06</v>
+        <v>5.809361767435874e-06</v>
       </c>
       <c r="D207" t="n">
-        <v>30.58156492999067</v>
+        <v>38.38178102612688</v>
       </c>
       <c r="E207" t="n">
-        <v>3.046385156744278e-05</v>
+        <v>9.459040792275124e-07</v>
       </c>
       <c r="F207" t="n">
-        <v>5.096927488331779</v>
+        <v>6.39696350435448</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>4.595068896996162</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0003890870827718032</v>
+        <v>0.0002534096057761074</v>
       </c>
       <c r="C208" t="n">
-        <v>8.703893360746962e-06</v>
+        <v>5.718837551070788e-06</v>
       </c>
       <c r="D208" t="n">
-        <v>33.01037210510177</v>
+        <v>27.55402108251544</v>
       </c>
       <c r="E208" t="n">
-        <v>1.043775738016469e-05</v>
+        <v>0.0001139850428543644</v>
       </c>
       <c r="F208" t="n">
-        <v>5.501728684183629</v>
+        <v>4.592336847085906</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>4.596757160971567</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="B209" t="n">
-        <v>0.000383226356970559</v>
+        <v>0.0002393567976584942</v>
       </c>
       <c r="C209" t="n">
-        <v>8.582923381419402e-06</v>
+        <v>5.07462410602572e-06</v>
       </c>
       <c r="D209" t="n">
-        <v>39.17713525332366</v>
+        <v>32.56888659546649</v>
       </c>
       <c r="E209" t="n">
-        <v>6.607524512242941e-07</v>
+        <v>1.269077662271201e-05</v>
       </c>
       <c r="F209" t="n">
-        <v>6.529522542220609</v>
+        <v>5.428147765911082</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>4.598633962040672</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0003712860153925413</v>
+        <v>0.0002436965734942632</v>
       </c>
       <c r="C210" t="n">
-        <v>8.410647353649915e-06</v>
+        <v>5.412061274109511e-06</v>
       </c>
       <c r="D210" t="n">
-        <v>30.71065687401128</v>
+        <v>25.44906283243198</v>
       </c>
       <c r="E210" t="n">
-        <v>2.878555843311974e-05</v>
+        <v>0.0002818842471019478</v>
       </c>
       <c r="F210" t="n">
-        <v>5.118442812335214</v>
+        <v>4.241510472071996</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>4.600339365751868</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0003534411550465459</v>
+        <v>0.0001437082188349858</v>
       </c>
       <c r="C211" t="n">
-        <v>7.49436198383157e-06</v>
+        <v>3.10158073853664e-06</v>
       </c>
       <c r="D211" t="n">
-        <v>33.06867806589392</v>
+        <v>39.97186844935408</v>
       </c>
       <c r="E211" t="n">
-        <v>1.01715435467233e-05</v>
+        <v>4.613501509024859e-07</v>
       </c>
       <c r="F211" t="n">
-        <v>5.511446344315654</v>
+        <v>6.661978074892347</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>4.600536472713462</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0003652284017005405</v>
+        <v>6.317269800338941e-05</v>
       </c>
       <c r="C212" t="n">
-        <v>7.692080365220136e-06</v>
+        <v>1.599662497522536e-06</v>
       </c>
       <c r="D212" t="n">
-        <v>47.28572404783617</v>
+        <v>21.9101004109698</v>
       </c>
       <c r="E212" t="n">
-        <v>1.640976462028729e-08</v>
+        <v>0.001257138232210964</v>
       </c>
       <c r="F212" t="n">
-        <v>7.880954007972695</v>
+        <v>3.651683401828301</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>4.601719114483036</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0003623306127826768</v>
+        <v>3.979772209351164e-05</v>
       </c>
       <c r="C213" t="n">
-        <v>8.030912358706867e-06</v>
+        <v>1.114694427402703e-06</v>
       </c>
       <c r="D213" t="n">
-        <v>25.69521662372791</v>
+        <v>5.449624863423955</v>
       </c>
       <c r="E213" t="n">
-        <v>0.0002537073744527949</v>
+        <v>0.4875660138038397</v>
       </c>
       <c r="F213" t="n">
-        <v>4.282536103954651</v>
+        <v>0.9082708105706591</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>4.603295970175799</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="B214" t="n">
-        <v>0.0003880390186325994</v>
+        <v>5.697008404602727e-05</v>
       </c>
       <c r="C214" t="n">
-        <v>8.109401604173041e-06</v>
+        <v>1.369597031605122e-06</v>
       </c>
       <c r="D214" t="n">
-        <v>42.2986501535613</v>
+        <v>25.25324004715911</v>
       </c>
       <c r="E214" t="n">
-        <v>1.605240711048667e-07</v>
+        <v>0.0003064837830390155</v>
       </c>
       <c r="F214" t="n">
-        <v>7.049775025593551</v>
+        <v>4.208873341193185</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>4.604949954679621</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0003149899192794188</v>
+        <v>3.54088781485988e-05</v>
       </c>
       <c r="C215" t="n">
-        <v>6.536488205888981e-06</v>
+        <v>9.603039918924925e-07</v>
       </c>
       <c r="D215" t="n">
-        <v>49.4478802993792</v>
+        <v>12.98836606902947</v>
       </c>
       <c r="E215" t="n">
-        <v>6.064989068100443e-09</v>
+        <v>0.04322106706441269</v>
       </c>
       <c r="F215" t="n">
-        <v>8.241313383229867</v>
+        <v>2.164727678171578</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>4.606132596449195</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="B216" t="n">
-        <v>0.0002126494135783802</v>
+        <v>2.754813059024952e-05</v>
       </c>
       <c r="C216" t="n">
-        <v>4.587959639843009e-06</v>
+        <v>8.142175234430055e-07</v>
       </c>
       <c r="D216" t="n">
-        <v>39.32928515677526</v>
+        <v>7.405295517993011</v>
       </c>
       <c r="E216" t="n">
-        <v>6.168731516035058e-07</v>
+        <v>0.2849852986465499</v>
       </c>
       <c r="F216" t="n">
-        <v>6.554880859462543</v>
+        <v>1.234215919665502</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>4.610666056565891</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="B217" t="n">
-        <v>9.298024060542245e-05</v>
+        <v>2.345100931737126e-05</v>
       </c>
       <c r="C217" t="n">
-        <v>2.358510623366864e-06</v>
+        <v>6.852691812496231e-07</v>
       </c>
       <c r="D217" t="n">
-        <v>23.2529808383674</v>
+        <v>2.864052316107891</v>
       </c>
       <c r="E217" t="n">
-        <v>0.0007160283954176309</v>
+        <v>0.8257061254772405</v>
       </c>
       <c r="F217" t="n">
-        <v>3.875496806394566</v>
+        <v>0.4773420526846486</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>4.613091329180303</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="B218" t="n">
-        <v>5.879553907532702e-05</v>
+        <v>2.206094638164909e-05</v>
       </c>
       <c r="C218" t="n">
-        <v>1.644257273194668e-06</v>
+        <v>6.93746064132982e-07</v>
       </c>
       <c r="D218" t="n">
-        <v>6.411029670906714</v>
+        <v>10.38927985438935</v>
       </c>
       <c r="E218" t="n">
-        <v>0.3787539716640206</v>
+        <v>0.1091870856990827</v>
       </c>
       <c r="F218" t="n">
-        <v>1.068504945151119</v>
+        <v>1.731546642398224</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>4.613451263631914</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="B219" t="n">
-        <v>8.460092369307001e-05</v>
+        <v>2.168915653466276e-05</v>
       </c>
       <c r="C219" t="n">
-        <v>2.032815556867817e-06</v>
+        <v>6.890593119223884e-07</v>
       </c>
       <c r="D219" t="n">
-        <v>25.00635341552062</v>
+        <v>9.65246594099783</v>
       </c>
       <c r="E219" t="n">
-        <v>0.0003405309479290237</v>
+        <v>0.1400711148168596</v>
       </c>
       <c r="F219" t="n">
-        <v>4.167725569253437</v>
+        <v>1.608744323499638</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>4.613896896762476</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="B220" t="n">
-        <v>5.226257373745518e-05</v>
+        <v>2.598561075107178e-05</v>
       </c>
       <c r="C220" t="n">
-        <v>1.420947154990456e-06</v>
+        <v>7.894079635559549e-07</v>
       </c>
       <c r="D220" t="n">
-        <v>14.2687967935849</v>
+        <v>2.705960309270545</v>
       </c>
       <c r="E220" t="n">
-        <v>0.02677351507617701</v>
+        <v>0.8447427859064459</v>
       </c>
       <c r="F220" t="n">
-        <v>2.378132798930817</v>
+        <v>0.4509933848784242</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>4.615696569020522</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="B221" t="n">
-        <v>4.08090919096035e-05</v>
+        <v>2.654287011754063e-05</v>
       </c>
       <c r="C221" t="n">
-        <v>1.205476862213994e-06</v>
+        <v>8.171419743143012e-07</v>
       </c>
       <c r="D221" t="n">
-        <v>7.935817927268878</v>
+        <v>6.537785607981796</v>
       </c>
       <c r="E221" t="n">
-        <v>0.2428432724446176</v>
+        <v>0.365711935651201</v>
       </c>
       <c r="F221" t="n">
-        <v>1.32263632121148</v>
+        <v>1.089630934663633</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>4.619038817499749</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="B222" t="n">
-        <v>3.455102190854197e-05</v>
+        <v>2.978611954433689e-05</v>
       </c>
       <c r="C222" t="n">
-        <v>1.012722341612268e-06</v>
+        <v>7.908826830365772e-07</v>
       </c>
       <c r="D222" t="n">
-        <v>3.393199023195454</v>
+        <v>15.90355039977055</v>
       </c>
       <c r="E222" t="n">
-        <v>0.7581205898009469</v>
+        <v>0.014281120909459</v>
       </c>
       <c r="F222" t="n">
-        <v>0.5655331705325757</v>
+        <v>2.650591733295091</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>4.621798314962087</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="B223" t="n">
-        <v>3.275852414710458e-05</v>
+        <v>3.414322321583532e-05</v>
       </c>
       <c r="C223" t="n">
-        <v>1.029982541651419e-06</v>
+        <v>9.15421848230571e-07</v>
       </c>
       <c r="D223" t="n">
-        <v>9.29364514785988</v>
+        <v>10.25423033896673</v>
       </c>
       <c r="E223" t="n">
-        <v>0.1577246769419433</v>
+        <v>0.1143460706503866</v>
       </c>
       <c r="F223" t="n">
-        <v>1.548940857976647</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>4.630650988498092</v>
-      </c>
-      <c r="B224" t="n">
-        <v>3.199936756078837e-05</v>
-      </c>
-      <c r="C224" t="n">
-        <v>1.017433711432045e-06</v>
-      </c>
-      <c r="D224" t="n">
-        <v>9.401484082080994</v>
-      </c>
-      <c r="E224" t="n">
-        <v>0.1522258874885859</v>
-      </c>
-      <c r="F224" t="n">
-        <v>1.566914013680166</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>4.639795037542543</v>
-      </c>
-      <c r="B225" t="n">
-        <v>3.812077139036652e-05</v>
-      </c>
-      <c r="C225" t="n">
-        <v>1.159440140326604e-06</v>
-      </c>
-      <c r="D225" t="n">
-        <v>2.067264334846244</v>
-      </c>
-      <c r="E225" t="n">
-        <v>0.9134094579772343</v>
-      </c>
-      <c r="F225" t="n">
-        <v>0.3445440558077073</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>4.64860486173907</v>
-      </c>
-      <c r="B226" t="n">
-        <v>3.923601840003866e-05</v>
-      </c>
-      <c r="C226" t="n">
-        <v>1.209302695543089e-06</v>
-      </c>
-      <c r="D226" t="n">
-        <v>6.154062261844592</v>
-      </c>
-      <c r="E226" t="n">
-        <v>0.4061552455435039</v>
-      </c>
-      <c r="F226" t="n">
-        <v>1.025677043640765</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>4.658074565763548</v>
-      </c>
-      <c r="B227" t="n">
-        <v>4.391265309970559e-05</v>
-      </c>
-      <c r="C227" t="n">
-        <v>1.165406731688579e-06</v>
-      </c>
-      <c r="D227" t="n">
-        <v>16.68734838332671</v>
-      </c>
-      <c r="E227" t="n">
-        <v>0.0105036426404212</v>
-      </c>
-      <c r="F227" t="n">
-        <v>2.781224730554451</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>4.661373964903298</v>
-      </c>
-      <c r="B228" t="n">
-        <v>5.03368536660795e-05</v>
-      </c>
-      <c r="C228" t="n">
-        <v>1.350501383972016e-06</v>
-      </c>
-      <c r="D228" t="n">
-        <v>9.629035798294765</v>
-      </c>
-      <c r="E228" t="n">
-        <v>0.1411686409143687</v>
-      </c>
-      <c r="F228" t="n">
-        <v>1.604839299715794</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>4.662710864294989</v>
-      </c>
-      <c r="B229" t="n">
-        <v>5.067081734918347e-05</v>
-      </c>
-      <c r="C229" t="n">
-        <v>1.500482927809915e-06</v>
-      </c>
-      <c r="D229" t="n">
-        <v>14.529008960234</v>
-      </c>
-      <c r="E229" t="n">
-        <v>0.02425391091136513</v>
-      </c>
-      <c r="F229" t="n">
-        <v>2.421501493372334</v>
+        <v>1.709038389827789</v>
       </c>
     </row>
   </sheetData>
